--- a/5_results/5_1_original/predictors_set_0.xlsx
+++ b/5_results/5_1_original/predictors_set_0.xlsx
@@ -714,18 +714,18 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.003999710083007812</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>0.4514648914337158</v>
+        <v>0.653172492980957</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.003999710083007812</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>0.4514648914337158</v>
+        <v>0.653172492980957</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -858,18 +858,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.004012107849121094</v>
+        <v>0.005001068115234375</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>0.8595359325408936</v>
+        <v>1.213626623153687</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004012107849121094</v>
+        <v>0.005001068115234375</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>0.8595359325408936</v>
+        <v>1.213626623153687</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -1002,18 +1002,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.007062196731567383</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>0.04207015037536621</v>
+        <v>0.1140549182891846</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.007062196731567383</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>0.04207015037536621</v>
+        <v>0.1140549182891846</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -1146,18 +1146,18 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.004007339477539062</v>
+        <v>0.00721287727355957</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>0.05392813682556152</v>
+        <v>0.2569460868835449</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004007339477539062</v>
+        <v>0.00721287727355957</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.05392813682556152</v>
+        <v>0.2569460868835449</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
@@ -1290,18 +1290,18 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.004008293151855469</v>
+        <v>0.01502585411071777</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0.04802513122558594</v>
+        <v>0.1187624931335449</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004008293151855469</v>
+        <v>0.01502585411071777</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0.04802513122558594</v>
+        <v>0.1187624931335449</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -1434,18 +1434,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.01409220695495605</v>
+        <v>0.01542496681213379</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>1.796634674072266</v>
+        <v>1.833910942077637</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01409220695495605</v>
+        <v>0.01542496681213379</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>1.796634674072266</v>
+        <v>1.833910942077637</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -1578,18 +1578,18 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.05524754524230957</v>
+        <v>0.06513428688049316</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>0.8792314529418945</v>
+        <v>0.9855899810791016</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05524754524230957</v>
+        <v>0.06513428688049316</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>0.8792314529418945</v>
+        <v>0.9855899810791016</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1722,18 +1722,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004012346267700195</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1.010738849639893</v>
+        <v>1.253275871276855</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004012346267700195</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>1.010738849639893</v>
+        <v>1.253275871276855</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -1820,7 +1820,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r111_FULL</t>
+          <t>NeuralNetFastAI_r100_FULL</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1830,34 +1830,34 @@
         <v>0.9828571428571429</v>
       </c>
       <c r="D10" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8885714285714286</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8693877551020408</v>
+        <v>0.8454106280193237</v>
       </c>
       <c r="H10" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="I10" t="n">
         <v>0.9571428571428572</v>
       </c>
       <c r="J10" t="n">
-        <v>0.75</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1811845387343509</v>
+        <v>-0.3197841337097824</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5944576380831738</v>
+        <v>0.3302228892186763</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
@@ -1866,18 +1866,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.01102137565612793</v>
+        <v>0.01469612121582031</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1.067387342453003</v>
+        <v>1.758196353912354</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01102137565612793</v>
+        <v>0.01469612121582031</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>1.067387342453003</v>
+        <v>1.758196353912354</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="Y10" t="n">
         <v>19</v>
@@ -1898,16 +1898,16 @@
         <v>1</v>
       </c>
       <c r="AB10" t="n">
-        <v>405549</v>
+        <v>1407073</v>
       </c>
       <c r="AC10" t="n">
-        <v>405549</v>
+        <v>1407073</v>
       </c>
       <c r="AD10" t="n">
-        <v>405549</v>
+        <v>1407073</v>
       </c>
       <c r="AE10" t="n">
-        <v>405549</v>
+        <v>1407073</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
@@ -1928,12 +1928,12 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>{'layers': [400, 200], 'emb_drop': 0.6343202884164582, 'ps': 0.48362560779595565, 'bs': 2048, 'lr': 0.08479209380262258, 'epochs': 21, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 18}</t>
+          <t>{'layers': [800, 400], 'emb_drop': 0.6960805527533755, 'ps': 0.20495582200836318, 'bs': 2048, 'lr': 0.0007278526871749883, 'epochs': 38, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 18}</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>{'epochs': 21, 'best_epoch': 18}</t>
+          <t>{'epochs': 38, 'best_epoch': 18}</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -1964,7 +1964,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r143_FULL</t>
+          <t>NeuralNetFastAI_r111_FULL</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1974,34 +1974,34 @@
         <v>0.9828571428571429</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.8885714285714286</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8974358974358975</v>
+        <v>0.8693877551020408</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="I11" t="n">
         <v>0.9571428571428572</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.2382009495237903</v>
+        <v>-0.1811845387343509</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4813075473852061</v>
+        <v>0.5944576380831738</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
@@ -2010,18 +2010,18 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0157935619354248</v>
+        <v>0.01579141616821289</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>0.4233458042144775</v>
+        <v>1.358932256698608</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0157935619354248</v>
+        <v>0.01579141616821289</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>0.4233458042144775</v>
+        <v>1.358932256698608</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y11" t="n">
         <v>19</v>
@@ -2042,16 +2042,16 @@
         <v>1</v>
       </c>
       <c r="AB11" t="n">
-        <v>784748</v>
+        <v>405549</v>
       </c>
       <c r="AC11" t="n">
-        <v>784748</v>
+        <v>405549</v>
       </c>
       <c r="AD11" t="n">
-        <v>784748</v>
+        <v>405549</v>
       </c>
       <c r="AE11" t="n">
-        <v>784748</v>
+        <v>405549</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
@@ -2061,23 +2061,23 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>TabularNeuralNetTorchModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>log_loss</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>{'num_epochs': 8, 'epochs_wo_improve': None, 'activation': 'elu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.1703783780377607, 'optimizer': 'adam', 'learning_rate': 0.0004107199833213839, 'weight_decay': 1.105439140660822e-07, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 5, 'hidden_size': 212, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
+          <t>{'layers': [400, 200], 'emb_drop': 0.6343202884164582, 'ps': 0.48362560779595565, 'bs': 2048, 'lr': 0.08479209380262258, 'epochs': 21, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 18}</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 0}</t>
+          <t>{'epochs': 21, 'best_epoch': 18}</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r100_FULL</t>
+          <t>NeuralNetTorch_r143_FULL</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2118,34 +2118,34 @@
         <v>0.9828571428571429</v>
       </c>
       <c r="D12" t="n">
-        <v>0.875</v>
+        <v>0.9375</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8454106280193237</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="H12" t="n">
-        <v>0.875</v>
+        <v>0.9375</v>
       </c>
       <c r="I12" t="n">
         <v>0.9571428571428572</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.3197841337097824</v>
+        <v>-0.2382009495237903</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3302228892186763</v>
+        <v>0.4813075473852061</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
@@ -2154,18 +2154,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.01808047294616699</v>
+        <v>0.01652646064758301</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>1.318761825561523</v>
+        <v>0.6388099193572998</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01808047294616699</v>
+        <v>0.01652646064758301</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>1.318761825561523</v>
+        <v>0.6388099193572998</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="Y12" t="n">
         <v>19</v>
@@ -2186,16 +2186,16 @@
         <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>1407073</v>
+        <v>784748</v>
       </c>
       <c r="AC12" t="n">
-        <v>1407073</v>
+        <v>784748</v>
       </c>
       <c r="AD12" t="n">
-        <v>1407073</v>
+        <v>784748</v>
       </c>
       <c r="AE12" t="n">
-        <v>1407073</v>
+        <v>784748</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -2205,23 +2205,23 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>TabularNeuralNetTorchModel</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>log_loss</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>{'layers': [800, 400], 'emb_drop': 0.6960805527533755, 'ps': 0.20495582200836318, 'bs': 2048, 'lr': 0.0007278526871749883, 'epochs': 38, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 18}</t>
+          <t>{'num_epochs': 8, 'epochs_wo_improve': None, 'activation': 'elu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.1703783780377607, 'optimizer': 'adam', 'learning_rate': 0.0004107199833213839, 'weight_decay': 1.105439140660822e-07, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 5, 'hidden_size': 212, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>{'epochs': 38, 'best_epoch': 18}</t>
+          <t>{'batch_size': 32, 'num_epochs': 0}</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
@@ -2298,18 +2298,18 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.008020877838134766</v>
+        <v>0.00899958610534668</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>0.2547593116760254</v>
+        <v>0.3508715629577637</v>
       </c>
       <c r="S13" t="n">
-        <v>0.008020877838134766</v>
+        <v>0.00899958610534668</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>0.2547593116760254</v>
+        <v>0.3508715629577637</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -2396,7 +2396,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>XGBoost_r33_FULL</t>
+          <t>XGBoost_r34_FULL</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2430,10 +2430,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1684047300143738</v>
+        <v>-0.1789545820817726</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6207169005035331</v>
+        <v>0.5990157082136197</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
@@ -2442,18 +2442,18 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.009769201278686523</v>
+        <v>0.01007819175720215</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>0.1368961334228516</v>
+        <v>0.1680407524108887</v>
       </c>
       <c r="S14" t="n">
-        <v>0.009769201278686523</v>
+        <v>0.01007819175720215</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>0.1368961334228516</v>
+        <v>0.1680407524108887</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="Y14" t="n">
         <v>19</v>
@@ -2474,16 +2474,16 @@
         <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>541279</v>
+        <v>368453</v>
       </c>
       <c r="AC14" t="n">
-        <v>541279</v>
+        <v>368453</v>
       </c>
       <c r="AD14" t="n">
-        <v>541279</v>
+        <v>368453</v>
       </c>
       <c r="AE14" t="n">
-        <v>541279</v>
+        <v>368453</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>{'n_estimators': 322, 'learning_rate': 0.018063876087523967, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6917311125174739, 'enable_categorical': False, 'max_depth': 10, 'min_child_weight': 0.6028633586934382}</t>
+          <t>{'n_estimators': 261, 'learning_rate': 0.029357102578825213, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.546186944730449, 'enable_categorical': False, 'max_depth': 10, 'min_child_weight': 1.1532008198571337}</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -2540,7 +2540,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>XGBoost_r34_FULL</t>
+          <t>XGBoost_r33_FULL</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2574,10 +2574,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1789545820817726</v>
+        <v>-0.1684047300143738</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5990157082136197</v>
+        <v>0.6207169005035331</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
@@ -2586,18 +2586,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.01128220558166504</v>
+        <v>0.01179385185241699</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>0.09760046005249023</v>
+        <v>0.2128639221191406</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01128220558166504</v>
+        <v>0.01179385185241699</v>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>0.09760046005249023</v>
+        <v>0.2128639221191406</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="Y15" t="n">
         <v>19</v>
@@ -2618,16 +2618,16 @@
         <v>1</v>
       </c>
       <c r="AB15" t="n">
-        <v>368453</v>
+        <v>541279</v>
       </c>
       <c r="AC15" t="n">
-        <v>368453</v>
+        <v>541279</v>
       </c>
       <c r="AD15" t="n">
-        <v>368453</v>
+        <v>541279</v>
       </c>
       <c r="AE15" t="n">
-        <v>368453</v>
+        <v>541279</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>{'n_estimators': 261, 'learning_rate': 0.029357102578825213, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.546186944730449, 'enable_categorical': False, 'max_depth': 10, 'min_child_weight': 1.1532008198571337}</t>
+          <t>{'n_estimators': 322, 'learning_rate': 0.018063876087523967, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6917311125174739, 'enable_categorical': False, 'max_depth': 10, 'min_child_weight': 0.6028633586934382}</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -2730,18 +2730,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.01203417778015137</v>
+        <v>0.01399874687194824</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>0.4954581260681152</v>
+        <v>0.8079583644866943</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01203417778015137</v>
+        <v>0.01399874687194824</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>0.4954581260681152</v>
+        <v>0.8079583644866943</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -2874,18 +2874,18 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.01342201232910156</v>
+        <v>0.01764297485351562</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>1.022781372070312</v>
+        <v>1.255212545394897</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01342201232910156</v>
+        <v>0.01764297485351562</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>1.022781372070312</v>
+        <v>1.255212545394897</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -3018,18 +3018,18 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.03569269180297852</v>
+        <v>0.03908848762512207</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0.3757519721984863</v>
+        <v>0.5787703990936279</v>
       </c>
       <c r="S18" t="n">
-        <v>0.03569269180297852</v>
+        <v>0.03908848762512207</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>0.3757519721984863</v>
+        <v>0.5787703990936279</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -3162,18 +3162,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.05553603172302246</v>
+        <v>0.06888937950134277</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>0.7225325107574463</v>
+        <v>0.8702287673950195</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05553603172302246</v>
+        <v>0.06888937950134277</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>0.7225325107574463</v>
+        <v>0.8702287673950195</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -3306,18 +3306,18 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.004011154174804688</v>
+        <v>0.004462003707885742</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>0.08323407173156738</v>
+        <v>0.1176309585571289</v>
       </c>
       <c r="S20" t="n">
-        <v>0.004011154174804688</v>
+        <v>0.004462003707885742</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>0.08323407173156738</v>
+        <v>0.1176309585571289</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
@@ -3450,18 +3450,18 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.004009246826171875</v>
+        <v>0.003007888793945312</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>0.1453056335449219</v>
+        <v>0.1776211261749268</v>
       </c>
       <c r="S21" t="n">
-        <v>0.004009246826171875</v>
+        <v>0.003007888793945312</v>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>0.1453056335449219</v>
+        <v>0.1776211261749268</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3594,18 +3594,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.004036188125610352</v>
+        <v>0.003997325897216797</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>0.5166499614715576</v>
+        <v>0.5954806804656982</v>
       </c>
       <c r="S22" t="n">
-        <v>0.004036188125610352</v>
+        <v>0.003997325897216797</v>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>0.5166499614715576</v>
+        <v>0.5954806804656982</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -3738,18 +3738,18 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.008426666259765625</v>
+        <v>0.008708715438842773</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>0.223771333694458</v>
+        <v>0.3794891834259033</v>
       </c>
       <c r="S23" t="n">
-        <v>0.008426666259765625</v>
+        <v>0.008708715438842773</v>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>0.223771333694458</v>
+        <v>0.3794891834259033</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3882,18 +3882,18 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.01778864860534668</v>
+        <v>0.01627707481384277</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>0.1638526916503906</v>
+        <v>0.2325155735015869</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01778864860534668</v>
+        <v>0.01627707481384277</v>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>0.1638526916503906</v>
+        <v>0.2325155735015869</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -4026,18 +4026,18 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.06557703018188477</v>
+        <v>0.07776904106140137</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>0.6219916343688965</v>
+        <v>0.7191050052642822</v>
       </c>
       <c r="S25" t="n">
-        <v>0.06557703018188477</v>
+        <v>0.07776904106140137</v>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>0.6219916343688965</v>
+        <v>0.7191050052642822</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -4170,18 +4170,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.01290988922119141</v>
+        <v>0.01404285430908203</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>0.9798295497894287</v>
+        <v>1.332051277160645</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01290988922119141</v>
+        <v>0.01404285430908203</v>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>0.9798295497894287</v>
+        <v>1.332051277160645</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -4268,7 +4268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CatBoost_r6_FULL</t>
+          <t>LightGBMLarge_FULL</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4278,34 +4278,34 @@
         <v>0.9657142857142857</v>
       </c>
       <c r="D27" t="n">
-        <v>0.84375</v>
+        <v>0.96875</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8485714285714285</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7997496871088861</v>
+        <v>0.951734539969834</v>
       </c>
       <c r="H27" t="n">
-        <v>0.84375</v>
+        <v>0.96875</v>
       </c>
       <c r="I27" t="n">
         <v>0.9340659340659341</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.2802382741324049</v>
+        <v>-0.2266795336270122</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4019197614270327</v>
+        <v>0.5036550582372498</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
@@ -4314,18 +4314,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.003753662109375</v>
+        <v>0.003000259399414062</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>0.07841658592224121</v>
+        <v>0.2242336273193359</v>
       </c>
       <c r="S27" t="n">
-        <v>0.003753662109375</v>
+        <v>0.003000259399414062</v>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>0.07841658592224121</v>
+        <v>0.2242336273193359</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="Y27" t="n">
         <v>19</v>
@@ -4346,16 +4346,16 @@
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>62869</v>
+        <v>631879</v>
       </c>
       <c r="AC27" t="n">
-        <v>62869</v>
+        <v>631879</v>
       </c>
       <c r="AD27" t="n">
-        <v>62869</v>
+        <v>631879</v>
       </c>
       <c r="AE27" t="n">
-        <v>62869</v>
+        <v>631879</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr"/>
@@ -4376,12 +4376,12 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>{'iterations': 68, 'learning_rate': 0.08472519974533015, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.5734131496361856, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'learning_rate': 0.03, 'num_leaves': 128, 'feature_fraction': 0.9, 'min_data_in_leaf': 3, 'num_boost_round': 75}</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>{'iterations': 68}</t>
+          <t>{'num_boost_round': 75}</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
@@ -4412,7 +4412,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LightGBMLarge_FULL</t>
+          <t>CatBoost_r6_FULL</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4422,34 +4422,34 @@
         <v>0.9657142857142857</v>
       </c>
       <c r="D28" t="n">
-        <v>0.96875</v>
+        <v>0.84375</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8485714285714285</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G28" t="n">
-        <v>0.951734539969834</v>
+        <v>0.7997496871088861</v>
       </c>
       <c r="H28" t="n">
-        <v>0.96875</v>
+        <v>0.84375</v>
       </c>
       <c r="I28" t="n">
         <v>0.9340659340659341</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K28" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.2266795336270122</v>
+        <v>-0.2802382741324049</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5036550582372498</v>
+        <v>0.4019197614270327</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
@@ -4458,18 +4458,18 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.003000974655151367</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>0.1943082809448242</v>
+        <v>0.1094913482666016</v>
       </c>
       <c r="S28" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.003000974655151367</v>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>0.1943082809448242</v>
+        <v>0.1094913482666016</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
@@ -4478,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="Y28" t="n">
         <v>19</v>
@@ -4490,16 +4490,16 @@
         <v>1</v>
       </c>
       <c r="AB28" t="n">
-        <v>631879</v>
+        <v>62869</v>
       </c>
       <c r="AC28" t="n">
-        <v>631879</v>
+        <v>62869</v>
       </c>
       <c r="AD28" t="n">
-        <v>631879</v>
+        <v>62869</v>
       </c>
       <c r="AE28" t="n">
-        <v>631879</v>
+        <v>62869</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr"/>
@@ -4520,12 +4520,12 @@
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.03, 'num_leaves': 128, 'feature_fraction': 0.9, 'min_data_in_leaf': 3, 'num_boost_round': 75}</t>
+          <t>{'iterations': 68, 'learning_rate': 0.08472519974533015, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.5734131496361856, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 75}</t>
+          <t>{'iterations': 68}</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
@@ -4602,18 +4602,18 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.005517959594726562</v>
+        <v>0.007788896560668945</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>0.05393290519714355</v>
+        <v>0.0605766773223877</v>
       </c>
       <c r="S29" t="n">
-        <v>0.005517959594726562</v>
+        <v>0.007788896560668945</v>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>0.05393290519714355</v>
+        <v>0.0605766773223877</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -4746,18 +4746,18 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.004702568054199219</v>
+        <v>0.00601959228515625</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>0.1596896648406982</v>
+        <v>0.1892330646514893</v>
       </c>
       <c r="S30" t="n">
-        <v>0.004702568054199219</v>
+        <v>0.00601959228515625</v>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>0.1596896648406982</v>
+        <v>0.1892330646514893</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -4890,18 +4890,18 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.01002001762390137</v>
+        <v>0.01200008392333984</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>0.06222867965698242</v>
+        <v>0.09702944755554199</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01002001762390137</v>
+        <v>0.01200008392333984</v>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>0.06222867965698242</v>
+        <v>0.09702944755554199</v>
       </c>
       <c r="V31" t="n">
         <v>1</v>
@@ -5034,18 +5034,18 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.06500387191772461</v>
+        <v>0.07757425308227539</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>0.7453272342681885</v>
+        <v>0.8663182258605957</v>
       </c>
       <c r="S32" t="n">
-        <v>0.06500387191772461</v>
+        <v>0.07757425308227539</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>0.7453272342681885</v>
+        <v>0.8663182258605957</v>
       </c>
       <c r="V32" t="n">
         <v>1</v>
@@ -5178,18 +5178,18 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.002005815505981445</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>0.1488893032073975</v>
+        <v>0.9857590198516846</v>
       </c>
       <c r="S33" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.002005815505981445</v>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>0.1488893032073975</v>
+        <v>0.9857590198516846</v>
       </c>
       <c r="V33" t="n">
         <v>1</v>
@@ -5322,18 +5322,18 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.004605293273925781</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>0.1389143466949463</v>
+        <v>0.2396605014801025</v>
       </c>
       <c r="S34" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.004605293273925781</v>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>0.1389143466949463</v>
+        <v>0.2396605014801025</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
@@ -5466,18 +5466,18 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.005586624145507812</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>0.1791763305664062</v>
+        <v>0.2163393497467041</v>
       </c>
       <c r="S35" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.005586624145507812</v>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>0.1791763305664062</v>
+        <v>0.2163393497467041</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
@@ -5610,18 +5610,18 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.005799531936645508</v>
+        <v>0.005999326705932617</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>0.1563329696655273</v>
+        <v>0.2074770927429199</v>
       </c>
       <c r="S36" t="n">
-        <v>0.005799531936645508</v>
+        <v>0.005999326705932617</v>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>0.1563329696655273</v>
+        <v>0.2074770927429199</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
@@ -5754,18 +5754,18 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.007025957107543945</v>
+        <v>0.008424043655395508</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>0.0609738826751709</v>
+        <v>0.1348271369934082</v>
       </c>
       <c r="S37" t="n">
-        <v>0.007025957107543945</v>
+        <v>0.008424043655395508</v>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>0.0609738826751709</v>
+        <v>0.1348271369934082</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -5898,18 +5898,18 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.06856465339660645</v>
+        <v>0.0667724609375</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>0.831958532333374</v>
+        <v>0.9290413856506348</v>
       </c>
       <c r="S38" t="n">
-        <v>0.06856465339660645</v>
+        <v>0.0667724609375</v>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>0.831958532333374</v>
+        <v>0.9290413856506348</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -6042,18 +6042,18 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.002481698989868164</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>0.1114137172698975</v>
+        <v>0.1349790096282959</v>
       </c>
       <c r="S39" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.002481698989868164</v>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>0.1114137172698975</v>
+        <v>0.1349790096282959</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
@@ -6186,18 +6186,18 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.003757238388061523</v>
+        <v>0.003999233245849609</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>0.3803813457489014</v>
+        <v>0.5875883102416992</v>
       </c>
       <c r="S40" t="n">
-        <v>0.003757238388061523</v>
+        <v>0.003999233245849609</v>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.3803813457489014</v>
+        <v>0.5875883102416992</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -6330,18 +6330,18 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.003990888595581055</v>
+        <v>0.004008054733276367</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>0.1290221214294434</v>
+        <v>0.1559412479400635</v>
       </c>
       <c r="S41" t="n">
-        <v>0.003990888595581055</v>
+        <v>0.004008054733276367</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>0.1290221214294434</v>
+        <v>0.1559412479400635</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -6428,7 +6428,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r187_FULL</t>
+          <t>LightGBM_r30_FULL</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -6462,10 +6462,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.1964945599693617</v>
+        <v>-0.2237125309201025</v>
       </c>
       <c r="M42" t="n">
-        <v>0.5634382853995425</v>
+        <v>0.509451650351683</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
@@ -6474,18 +6474,18 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.00975489616394043</v>
+        <v>0.01291275024414062</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>0.9789600372314453</v>
+        <v>0.4665853977203369</v>
       </c>
       <c r="S42" t="n">
-        <v>0.00975489616394043</v>
+        <v>0.01291275024414062</v>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>0.9789600372314453</v>
+        <v>0.4665853977203369</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -6494,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="Y42" t="n">
         <v>19</v>
@@ -6506,16 +6506,16 @@
         <v>1</v>
       </c>
       <c r="AB42" t="n">
-        <v>167368</v>
+        <v>1235670</v>
       </c>
       <c r="AC42" t="n">
-        <v>167368</v>
+        <v>1235670</v>
       </c>
       <c r="AD42" t="n">
-        <v>167368</v>
+        <v>1235670</v>
       </c>
       <c r="AE42" t="n">
-        <v>167368</v>
+        <v>1235670</v>
       </c>
       <c r="AF42" t="n">
         <v>0</v>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr"/>
@@ -6536,17 +6536,17 @@
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>{'layers': [200, 100, 50], 'emb_drop': 0.5074958658302495, 'ps': 0.34814978753283593, 'bs': 1024, 'lr': 0.026342427824862867, 'epochs': 42, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 16}</t>
+          <t>{'learning_rate': 0.010534290864227067, 'extra_trees': True, 'feature_fraction': 0.9773131270704629, 'min_data_in_leaf': 21, 'num_leaves': 111, 'num_boost_round': 1326}</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>{'epochs': 42, 'best_epoch': 16}</t>
+          <t>{'num_boost_round': 1326}</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
@@ -6618,18 +6618,18 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.01203703880310059</v>
+        <v>0.0149998664855957</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>0.605982780456543</v>
+        <v>0.8417389392852783</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01203703880310059</v>
+        <v>0.0149998664855957</v>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>0.605982780456543</v>
+        <v>0.8417389392852783</v>
       </c>
       <c r="V43" t="n">
         <v>1</v>
@@ -6716,7 +6716,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LightGBM_r30_FULL</t>
+          <t>NeuralNetFastAI_r187_FULL</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6750,10 +6750,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.2237125309201025</v>
+        <v>-0.1964945599693617</v>
       </c>
       <c r="M44" t="n">
-        <v>0.509451650351683</v>
+        <v>0.5634382853995425</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
@@ -6762,18 +6762,18 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.02646660804748535</v>
+        <v>0.01518535614013672</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>0.2685587406158447</v>
+        <v>1.29575514793396</v>
       </c>
       <c r="S44" t="n">
-        <v>0.02646660804748535</v>
+        <v>0.01518535614013672</v>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>0.2685587406158447</v>
+        <v>1.29575514793396</v>
       </c>
       <c r="V44" t="n">
         <v>1</v>
@@ -6782,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="Y44" t="n">
         <v>19</v>
@@ -6794,16 +6794,16 @@
         <v>1</v>
       </c>
       <c r="AB44" t="n">
-        <v>1235670</v>
+        <v>167368</v>
       </c>
       <c r="AC44" t="n">
-        <v>1235670</v>
+        <v>167368</v>
       </c>
       <c r="AD44" t="n">
-        <v>1235670</v>
+        <v>167368</v>
       </c>
       <c r="AE44" t="n">
-        <v>1235670</v>
+        <v>167368</v>
       </c>
       <c r="AF44" t="n">
         <v>0</v>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr"/>
@@ -6824,17 +6824,17 @@
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.010534290864227067, 'extra_trees': True, 'feature_fraction': 0.9773131270704629, 'min_data_in_leaf': 21, 'num_leaves': 111, 'num_boost_round': 1326}</t>
+          <t>{'layers': [200, 100, 50], 'emb_drop': 0.5074958658302495, 'ps': 0.34814978753283593, 'bs': 1024, 'lr': 0.026342427824862867, 'epochs': 42, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 16}</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 1326}</t>
+          <t>{'epochs': 42, 'best_epoch': 16}</t>
         </is>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN44" t="inlineStr">
@@ -6906,18 +6906,18 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.01103043556213379</v>
+        <v>0.01518368721008301</v>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>0.8157870769500732</v>
+        <v>1.028858661651611</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01103043556213379</v>
+        <v>0.01518368721008301</v>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>0.8157870769500732</v>
+        <v>1.028858661651611</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -7050,18 +7050,18 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.004006624221801758</v>
+        <v>0.003003835678100586</v>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>0.5482702255249023</v>
+        <v>0.782062292098999</v>
       </c>
       <c r="S46" t="n">
-        <v>0.004006624221801758</v>
+        <v>0.003003835678100586</v>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>0.5482702255249023</v>
+        <v>0.782062292098999</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -7194,18 +7194,18 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.007015228271484375</v>
+        <v>0.008796215057373047</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>0.1803793907165527</v>
+        <v>0.2365942001342773</v>
       </c>
       <c r="S47" t="n">
-        <v>0.007015228271484375</v>
+        <v>0.008796215057373047</v>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>0.1803793907165527</v>
+        <v>0.2365942001342773</v>
       </c>
       <c r="V47" t="n">
         <v>1</v>
@@ -7338,18 +7338,18 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.004011631011962891</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>0.08159160614013672</v>
+        <v>0.09177398681640625</v>
       </c>
       <c r="S48" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.004011631011962891</v>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>0.08159160614013672</v>
+        <v>0.09177398681640625</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -7482,18 +7482,18 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.004007577896118164</v>
+        <v>0.004066944122314453</v>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>0.08365225791931152</v>
+        <v>0.09219145774841309</v>
       </c>
       <c r="S49" t="n">
-        <v>0.004007577896118164</v>
+        <v>0.004066944122314453</v>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>0.08365225791931152</v>
+        <v>0.09219145774841309</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -7626,18 +7626,18 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.005398988723754883</v>
+        <v>0.005007266998291016</v>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>0.1574552059173584</v>
+        <v>0.189976692199707</v>
       </c>
       <c r="S50" t="n">
-        <v>0.005398988723754883</v>
+        <v>0.005007266998291016</v>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>0.1574552059173584</v>
+        <v>0.189976692199707</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
@@ -7772,22 +7772,22 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0131676197052002</v>
+        <v>0.013641357421875</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.006147146224975586</v>
+        <v>0.005999565124511719</v>
       </c>
       <c r="R51" t="n">
-        <v>2.030638933181763</v>
+        <v>1.959416151046753</v>
       </c>
       <c r="S51" t="n">
-        <v>0.0131676197052002</v>
+        <v>0.013641357421875</v>
       </c>
       <c r="T51" t="n">
-        <v>0.006147146224975586</v>
+        <v>0.005999565124511719</v>
       </c>
       <c r="U51" t="n">
-        <v>2.030638933181763</v>
+        <v>1.959416151046753</v>
       </c>
       <c r="V51" t="n">
         <v>1</v>
@@ -7922,22 +7922,22 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.01377296447753906</v>
+        <v>0.0159447193145752</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.01177978515625</v>
       </c>
       <c r="R52" t="n">
-        <v>2.374990224838257</v>
+        <v>3.098482131958008</v>
       </c>
       <c r="S52" t="n">
-        <v>0.01377296447753906</v>
+        <v>0.0159447193145752</v>
       </c>
       <c r="T52" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.01177978515625</v>
       </c>
       <c r="U52" t="n">
-        <v>2.374990224838257</v>
+        <v>3.098482131958008</v>
       </c>
       <c r="V52" t="n">
         <v>1</v>
@@ -8070,18 +8070,18 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.03007793426513672</v>
+        <v>0.0356748104095459</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>0.5477454662322998</v>
+        <v>0.8202471733093262</v>
       </c>
       <c r="S53" t="n">
-        <v>0.03007793426513672</v>
+        <v>0.0356748104095459</v>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>0.5477454662322998</v>
+        <v>0.8202471733093262</v>
       </c>
       <c r="V53" t="n">
         <v>1</v>
@@ -8216,22 +8216,22 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.1487870216369629</v>
+        <v>0.1624786853790283</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.09176802635192871</v>
+        <v>0.1029055118560791</v>
       </c>
       <c r="R54" t="n">
-        <v>3.313929319381714</v>
+        <v>4.231657266616821</v>
       </c>
       <c r="S54" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.004012346267700195</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="U54" t="n">
-        <v>0.1183798313140869</v>
+        <v>0.1576063632965088</v>
       </c>
       <c r="V54" t="n">
         <v>2</v>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>['RandomForestGini', 'ExtraTrees_r4', 'CatBoost', 'NeuralNetTorch_r1']</t>
+          <t>['NeuralNetTorch_r1', 'ExtraTrees_r4', 'CatBoost', 'RandomForestGini']</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr"/>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="AS54" t="inlineStr">
         <is>
-          <t>['RandomForestGini', 'ExtraTrees_r4', 'CatBoost', 'NeuralNetTorch_r1']</t>
+          <t>['NeuralNetTorch_r1', 'ExtraTrees_r4', 'CatBoost', 'RandomForestGini']</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr">
@@ -8380,18 +8380,18 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>0.01247882843017578</v>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>2.88555908203125</v>
+        <v>4.090761184692383</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>0.01247882843017578</v>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>2.88555908203125</v>
+        <v>4.090761184692383</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -8524,18 +8524,18 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0140228271484375</v>
+        <v>0.01489067077636719</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>0.09865021705627441</v>
+        <v>0.1167666912078857</v>
       </c>
       <c r="S56" t="n">
-        <v>0.0140228271484375</v>
+        <v>0.01489067077636719</v>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>0.09865021705627441</v>
+        <v>0.1167666912078857</v>
       </c>
       <c r="V56" t="n">
         <v>1</v>
@@ -8670,22 +8670,22 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.01346850395202637</v>
+        <v>0.01307010650634766</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01629829406738281</v>
+        <v>0.006000757217407227</v>
       </c>
       <c r="R57" t="n">
-        <v>0.5463550090789795</v>
+        <v>0.6178247928619385</v>
       </c>
       <c r="S57" t="n">
-        <v>0.01346850395202637</v>
+        <v>0.01307010650634766</v>
       </c>
       <c r="T57" t="n">
-        <v>0.01629829406738281</v>
+        <v>0.006000757217407227</v>
       </c>
       <c r="U57" t="n">
-        <v>0.5463550090789795</v>
+        <v>0.6178247928619385</v>
       </c>
       <c r="V57" t="n">
         <v>1</v>
@@ -8820,22 +8820,22 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.01458168029785156</v>
+        <v>0.01599931716918945</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01246404647827148</v>
+        <v>0.008531332015991211</v>
       </c>
       <c r="R58" t="n">
-        <v>1.167910099029541</v>
+        <v>1.87123703956604</v>
       </c>
       <c r="S58" t="n">
-        <v>0.01458168029785156</v>
+        <v>0.01599931716918945</v>
       </c>
       <c r="T58" t="n">
-        <v>0.01246404647827148</v>
+        <v>0.008531332015991211</v>
       </c>
       <c r="U58" t="n">
-        <v>1.167910099029541</v>
+        <v>1.87123703956604</v>
       </c>
       <c r="V58" t="n">
         <v>1</v>
@@ -8970,22 +8970,22 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.009677648544311523</v>
+        <v>0.01259398460388184</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01392865180969238</v>
+        <v>0.009508609771728516</v>
       </c>
       <c r="R59" t="n">
-        <v>1.588015556335449</v>
+        <v>2.326085329055786</v>
       </c>
       <c r="S59" t="n">
-        <v>0.009677648544311523</v>
+        <v>0.01259398460388184</v>
       </c>
       <c r="T59" t="n">
-        <v>0.01392865180969238</v>
+        <v>0.009508609771728516</v>
       </c>
       <c r="U59" t="n">
-        <v>1.588015556335449</v>
+        <v>2.326085329055786</v>
       </c>
       <c r="V59" t="n">
         <v>1</v>
@@ -9072,7 +9072,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CatBoost_r163_FULL</t>
+          <t>NeuralNetFastAI_FULL</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -9085,13 +9085,13 @@
         <v>0.84375</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9</v>
+        <v>0.8485714285714285</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8128654970760234</v>
+        <v>0.7997496871088861</v>
       </c>
       <c r="H60" t="n">
         <v>0.84375</v>
@@ -9100,16 +9100,16 @@
         <v>0.9047619047619048</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.3515674761214633</v>
+        <v>-0.3222174281717344</v>
       </c>
       <c r="M60" t="n">
-        <v>0.2746195096565646</v>
+        <v>0.3259030132231791</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
@@ -9118,18 +9118,18 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.002004861831665039</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>0.06457710266113281</v>
+        <v>0.3616287708282471</v>
       </c>
       <c r="S60" t="n">
-        <v>0.002004861831665039</v>
+        <v>0</v>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>0.06457710266113281</v>
+        <v>0.3616287708282471</v>
       </c>
       <c r="V60" t="n">
         <v>1</v>
@@ -9138,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="X60" t="n">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="Y60" t="n">
         <v>19</v>
@@ -9150,16 +9150,16 @@
         <v>1</v>
       </c>
       <c r="AB60" t="n">
-        <v>54965</v>
+        <v>139977</v>
       </c>
       <c r="AC60" t="n">
-        <v>54965</v>
+        <v>139977</v>
       </c>
       <c r="AD60" t="n">
-        <v>54965</v>
+        <v>139977</v>
       </c>
       <c r="AE60" t="n">
-        <v>54965</v>
+        <v>139977</v>
       </c>
       <c r="AF60" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI60" t="inlineStr"/>
@@ -9180,17 +9180,17 @@
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>{'iterations': 72, 'learning_rate': 0.09328642499990342, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.7454481983750014, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'layers': None, 'emb_drop': 0.1, 'ps': 0.1, 'bs': 'auto', 'lr': 0.01, 'epochs': 30, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 15}</t>
         </is>
       </c>
       <c r="AL60" t="inlineStr">
         <is>
-          <t>{'iterations': 72}</t>
+          <t>{'epochs': 30, 'best_epoch': 15}</t>
         </is>
       </c>
       <c r="AM60" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN60" t="inlineStr">
@@ -9216,7 +9216,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LightGBM_r96_FULL</t>
+          <t>CatBoost_r163_FULL</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -9226,34 +9226,34 @@
         <v>0.96</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.9</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7681159420289855</v>
+        <v>0.8128654970760234</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="I61" t="n">
         <v>0.9047619047619048</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K61" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.338907000077501</v>
+        <v>-0.3515674761214633</v>
       </c>
       <c r="M61" t="n">
-        <v>0.2965568540006618</v>
+        <v>0.2746195096565646</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
@@ -9262,18 +9262,18 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.005756139755249023</v>
+        <v>0.002999782562255859</v>
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>0.2019124031066895</v>
+        <v>0.09006881713867188</v>
       </c>
       <c r="S61" t="n">
-        <v>0.005756139755249023</v>
+        <v>0.002999782562255859</v>
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>0.2019124031066895</v>
+        <v>0.09006881713867188</v>
       </c>
       <c r="V61" t="n">
         <v>1</v>
@@ -9282,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="Y61" t="n">
         <v>19</v>
@@ -9294,16 +9294,16 @@
         <v>1</v>
       </c>
       <c r="AB61" t="n">
-        <v>551019</v>
+        <v>54965</v>
       </c>
       <c r="AC61" t="n">
-        <v>551019</v>
+        <v>54965</v>
       </c>
       <c r="AD61" t="n">
-        <v>551019</v>
+        <v>54965</v>
       </c>
       <c r="AE61" t="n">
-        <v>551019</v>
+        <v>54965</v>
       </c>
       <c r="AF61" t="n">
         <v>0</v>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI61" t="inlineStr"/>
@@ -9324,12 +9324,12 @@
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.01518660230385841, 'extra_trees': True, 'feature_fraction': 0.5636931414546802, 'min_data_in_leaf': 48, 'num_leaves': 16, 'num_boost_round': 1089}</t>
+          <t>{'iterations': 72, 'learning_rate': 0.09328642499990342, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.7454481983750014, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL61" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 1088}</t>
+          <t>{'iterations': 72}</t>
         </is>
       </c>
       <c r="AM61" t="inlineStr">
@@ -9360,7 +9360,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_FULL</t>
+          <t>LightGBM_r96_FULL</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -9370,34 +9370,34 @@
         <v>0.96</v>
       </c>
       <c r="D62" t="n">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8485714285714285</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7997496871088861</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="H62" t="n">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="I62" t="n">
         <v>0.9047619047619048</v>
       </c>
       <c r="J62" t="n">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K62" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.3222174281717344</v>
+        <v>-0.338907000077501</v>
       </c>
       <c r="M62" t="n">
-        <v>0.3259030132231791</v>
+        <v>0.2965568540006618</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
@@ -9406,18 +9406,18 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.009792566299438477</v>
+        <v>0.008001327514648438</v>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>0.2976655960083008</v>
+        <v>0.2260422706604004</v>
       </c>
       <c r="S62" t="n">
-        <v>0.009792566299438477</v>
+        <v>0.008001327514648438</v>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>0.2976655960083008</v>
+        <v>0.2260422706604004</v>
       </c>
       <c r="V62" t="n">
         <v>1</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="X62" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y62" t="n">
         <v>19</v>
@@ -9438,16 +9438,16 @@
         <v>1</v>
       </c>
       <c r="AB62" t="n">
-        <v>139977</v>
+        <v>551019</v>
       </c>
       <c r="AC62" t="n">
-        <v>139977</v>
+        <v>551019</v>
       </c>
       <c r="AD62" t="n">
-        <v>139977</v>
+        <v>551019</v>
       </c>
       <c r="AE62" t="n">
-        <v>139977</v>
+        <v>551019</v>
       </c>
       <c r="AF62" t="n">
         <v>0</v>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr"/>
@@ -9468,17 +9468,17 @@
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>{'layers': None, 'emb_drop': 0.1, 'ps': 0.1, 'bs': 'auto', 'lr': 0.01, 'epochs': 30, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0, 'best_epoch': 15}</t>
+          <t>{'learning_rate': 0.01518660230385841, 'extra_trees': True, 'feature_fraction': 0.5636931414546802, 'min_data_in_leaf': 48, 'num_leaves': 16, 'num_boost_round': 1089}</t>
         </is>
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>{'epochs': 30, 'best_epoch': 15}</t>
+          <t>{'num_boost_round': 1088}</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': None, 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
@@ -9550,18 +9550,18 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.1493947505950928</v>
+        <v>0.1606111526489258</v>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>1.68464994430542</v>
+        <v>2.277754068374634</v>
       </c>
       <c r="S63" t="n">
-        <v>0.001745700836181641</v>
+        <v>0.002007484436035156</v>
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>0.1183798313140869</v>
+        <v>0.1576063632965088</v>
       </c>
       <c r="V63" t="n">
         <v>2</v>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>['RandomForestGini', 'ExtraTrees_r4', 'CatBoost', 'NeuralNetTorch_r1']</t>
+          <t>['NeuralNetTorch_r1', 'ExtraTrees_r4', 'CatBoost', 'RandomForestGini']</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr"/>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="AS63" t="inlineStr">
         <is>
-          <t>['ExtraTrees_r4_FULL', 'RandomForestGini_FULL', 'NeuralNetTorch_r1_FULL', 'CatBoost_FULL']</t>
+          <t>['NeuralNetTorch_r1_FULL', 'RandomForestGini_FULL', 'CatBoost_FULL', 'ExtraTrees_r4_FULL']</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr">
@@ -9710,18 +9710,18 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.01001977920532227</v>
+        <v>0.01639938354492188</v>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>0.4026455879211426</v>
+        <v>0.5536248683929443</v>
       </c>
       <c r="S64" t="n">
-        <v>0.01001977920532227</v>
+        <v>0.01639938354492188</v>
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>0.4026455879211426</v>
+        <v>0.5536248683929443</v>
       </c>
       <c r="V64" t="n">
         <v>1</v>
@@ -9854,18 +9854,18 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.004011154174804688</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>0.07760047912597656</v>
+        <v>0.1048390865325928</v>
       </c>
       <c r="S65" t="n">
-        <v>0.004011154174804688</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>0.07760047912597656</v>
+        <v>0.1048390865325928</v>
       </c>
       <c r="V65" t="n">
         <v>1</v>
@@ -9998,18 +9998,18 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.004010915756225586</v>
+        <v>0.003998041152954102</v>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
-        <v>0.4856321811676025</v>
+        <v>0.6890339851379395</v>
       </c>
       <c r="S66" t="n">
-        <v>0.004010915756225586</v>
+        <v>0.003998041152954102</v>
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>0.4856321811676025</v>
+        <v>0.6890339851379395</v>
       </c>
       <c r="V66" t="n">
         <v>1</v>
@@ -10142,18 +10142,18 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.05329179763793945</v>
+        <v>0.06490659713745117</v>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="n">
-        <v>0.9041528701782227</v>
+        <v>0.8789410591125488</v>
       </c>
       <c r="S67" t="n">
-        <v>0.05329179763793945</v>
+        <v>0.06490659713745117</v>
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>0.9041528701782227</v>
+        <v>0.8789410591125488</v>
       </c>
       <c r="V67" t="n">
         <v>1</v>
@@ -10286,18 +10286,18 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.06552577018737793</v>
+        <v>0.07032132148742676</v>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
-        <v>0.5169782638549805</v>
+        <v>0.8250205516815186</v>
       </c>
       <c r="S68" t="n">
-        <v>0.06552577018737793</v>
+        <v>0.07032132148742676</v>
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>0.5169782638549805</v>
+        <v>0.8250205516815186</v>
       </c>
       <c r="V68" t="n">
         <v>1</v>
@@ -10384,7 +10384,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r86_FULL</t>
+          <t>NeuralNetTorch_FULL</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -10394,34 +10394,34 @@
         <v>0.9657142857142857</v>
       </c>
       <c r="D69" t="n">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7657142857142857</v>
+        <v>0.8371428571428572</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7948717948717949</v>
+        <v>0.8552036199095023</v>
       </c>
       <c r="H69" t="n">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="I69" t="n">
         <v>0.8976190476190476</v>
       </c>
       <c r="J69" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.2585873995037954</v>
+        <v>-0.2187649955972282</v>
       </c>
       <c r="M69" t="n">
-        <v>0.4423908849315789</v>
+        <v>0.5191560557358139</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
@@ -10430,18 +10430,18 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.009028196334838867</v>
+        <v>0.01051092147827148</v>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
-        <v>0.2222526073455811</v>
+        <v>0.5082380771636963</v>
       </c>
       <c r="S69" t="n">
-        <v>0.009028196334838867</v>
+        <v>0.01051092147827148</v>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>0.2222526073455811</v>
+        <v>0.5082380771636963</v>
       </c>
       <c r="V69" t="n">
         <v>1</v>
@@ -10450,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -10462,16 +10462,16 @@
         <v>1</v>
       </c>
       <c r="AB69" t="n">
-        <v>327124</v>
+        <v>229823</v>
       </c>
       <c r="AC69" t="n">
-        <v>327124</v>
+        <v>229823</v>
       </c>
       <c r="AD69" t="n">
-        <v>327124</v>
+        <v>229823</v>
       </c>
       <c r="AE69" t="n">
-        <v>327124</v>
+        <v>229823</v>
       </c>
       <c r="AF69" t="n">
         <v>0</v>
@@ -10492,7 +10492,7 @@
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>{'num_epochs': 6, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.09976801642258049, 'optimizer': 'adam', 'learning_rate': 0.001631450730978947, 'weight_decay': 3.867683394425807e-05, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 5, 'hidden_size': 135, 'max_batch_size': 512, 'use_batchnorm': False, 'loss_function': 'auto', 'batch_size': 32}</t>
+          <t>{'num_epochs': 15, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.1, 'optimizer': 'adam', 'learning_rate': 0.0003, 'weight_decay': 1e-06, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 4, 'hidden_size': 128, 'max_batch_size': 512, 'use_batchnorm': False, 'loss_function': 'auto', 'batch_size': 32}</t>
         </is>
       </c>
       <c r="AL69" t="inlineStr">
@@ -10528,7 +10528,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_FULL</t>
+          <t>NeuralNetTorch_r86_FULL</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -10538,34 +10538,34 @@
         <v>0.9657142857142857</v>
       </c>
       <c r="D70" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8371428571428572</v>
+        <v>0.7657142857142857</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8552036199095023</v>
+        <v>0.7948717948717949</v>
       </c>
       <c r="H70" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="I70" t="n">
         <v>0.8976190476190476</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.2187649955972282</v>
+        <v>-0.2585873995037954</v>
       </c>
       <c r="M70" t="n">
-        <v>0.5191560557358139</v>
+        <v>0.4423908849315789</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
@@ -10574,18 +10574,18 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.01067328453063965</v>
+        <v>0.01079487800598145</v>
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="n">
-        <v>0.3551578521728516</v>
+        <v>0.2770473957061768</v>
       </c>
       <c r="S70" t="n">
-        <v>0.01067328453063965</v>
+        <v>0.01079487800598145</v>
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>0.3551578521728516</v>
+        <v>0.2770473957061768</v>
       </c>
       <c r="V70" t="n">
         <v>1</v>
@@ -10594,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="Y70" t="n">
         <v>19</v>
@@ -10606,16 +10606,16 @@
         <v>1</v>
       </c>
       <c r="AB70" t="n">
-        <v>229823</v>
+        <v>327124</v>
       </c>
       <c r="AC70" t="n">
-        <v>229823</v>
+        <v>327124</v>
       </c>
       <c r="AD70" t="n">
-        <v>229823</v>
+        <v>327124</v>
       </c>
       <c r="AE70" t="n">
-        <v>229823</v>
+        <v>327124</v>
       </c>
       <c r="AF70" t="n">
         <v>0</v>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>{'num_epochs': 15, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.1, 'optimizer': 'adam', 'learning_rate': 0.0003, 'weight_decay': 1e-06, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 4, 'hidden_size': 128, 'max_batch_size': 512, 'use_batchnorm': False, 'loss_function': 'auto', 'batch_size': 32}</t>
+          <t>{'num_epochs': 6, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.09976801642258049, 'optimizer': 'adam', 'learning_rate': 0.001631450730978947, 'weight_decay': 3.867683394425807e-05, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 5, 'hidden_size': 135, 'max_batch_size': 512, 'use_batchnorm': False, 'loss_function': 'auto', 'batch_size': 32}</t>
         </is>
       </c>
       <c r="AL70" t="inlineStr">
@@ -10718,18 +10718,18 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.001999139785766602</v>
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
-        <v>0.1067507266998291</v>
+        <v>0.1424016952514648</v>
       </c>
       <c r="S71" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.001999139785766602</v>
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>0.1067507266998291</v>
+        <v>0.1424016952514648</v>
       </c>
       <c r="V71" t="n">
         <v>1</v>
@@ -10862,18 +10862,18 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.002412319183349609</v>
+        <v>0.004543066024780273</v>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>0.1471154689788818</v>
+        <v>0.2090034484863281</v>
       </c>
       <c r="S72" t="n">
-        <v>0.002412319183349609</v>
+        <v>0.004543066024780273</v>
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>0.1471154689788818</v>
+        <v>0.2090034484863281</v>
       </c>
       <c r="V72" t="n">
         <v>1</v>
@@ -11008,22 +11008,22 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.01378440856933594</v>
+        <v>0.0134432315826416</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01228213310241699</v>
+        <v>0.009002685546875</v>
       </c>
       <c r="R73" t="n">
-        <v>2.395303726196289</v>
+        <v>2.548879623413086</v>
       </c>
       <c r="S73" t="n">
-        <v>0.01378440856933594</v>
+        <v>0.0134432315826416</v>
       </c>
       <c r="T73" t="n">
-        <v>0.01228213310241699</v>
+        <v>0.009002685546875</v>
       </c>
       <c r="U73" t="n">
-        <v>2.395303726196289</v>
+        <v>2.548879623413086</v>
       </c>
       <c r="V73" t="n">
         <v>1</v>
@@ -11158,22 +11158,22 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.00802302360534668</v>
+        <v>0.008022785186767578</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="R74" t="n">
-        <v>0.4441783428192139</v>
+        <v>0.6312031745910645</v>
       </c>
       <c r="S74" t="n">
-        <v>0.00802302360534668</v>
+        <v>0.008022785186767578</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="U74" t="n">
-        <v>0.4441783428192139</v>
+        <v>0.6312031745910645</v>
       </c>
       <c r="V74" t="n">
         <v>1</v>
@@ -11306,18 +11306,18 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.01590514183044434</v>
+        <v>0.01716375350952148</v>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>0.2134225368499756</v>
+        <v>0.3200664520263672</v>
       </c>
       <c r="S75" t="n">
-        <v>0.01590514183044434</v>
+        <v>0.01716375350952148</v>
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>0.2134225368499756</v>
+        <v>0.3200664520263672</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -11450,18 +11450,18 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0145113468170166</v>
+        <v>0.01555061340332031</v>
       </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="n">
-        <v>0.5680253505706787</v>
+        <v>0.7019267082214355</v>
       </c>
       <c r="S76" t="n">
-        <v>0.0145113468170166</v>
+        <v>0.01555061340332031</v>
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>0.5680253505706787</v>
+        <v>0.7019267082214355</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -11596,22 +11596,22 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.01152205467224121</v>
+        <v>0.01410412788391113</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.01572918891906738</v>
+        <v>0.01003384590148926</v>
       </c>
       <c r="R77" t="n">
-        <v>2.376703262329102</v>
+        <v>3.115826606750488</v>
       </c>
       <c r="S77" t="n">
-        <v>0.01152205467224121</v>
+        <v>0.01410412788391113</v>
       </c>
       <c r="T77" t="n">
-        <v>0.01572918891906738</v>
+        <v>0.01003384590148926</v>
       </c>
       <c r="U77" t="n">
-        <v>2.376703262329102</v>
+        <v>3.115826606750488</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -11746,22 +11746,22 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.01344752311706543</v>
+        <v>0.0145866870880127</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.01018023490905762</v>
+        <v>0.009000301361083984</v>
       </c>
       <c r="R78" t="n">
-        <v>0.6890194416046143</v>
+        <v>0.8717739582061768</v>
       </c>
       <c r="S78" t="n">
-        <v>0.01344752311706543</v>
+        <v>0.0145866870880127</v>
       </c>
       <c r="T78" t="n">
-        <v>0.01018023490905762</v>
+        <v>0.009000301361083984</v>
       </c>
       <c r="U78" t="n">
-        <v>0.6890194416046143</v>
+        <v>0.8717739582061768</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -11894,18 +11894,18 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.009759426116943359</v>
+        <v>0.01102495193481445</v>
       </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="n">
-        <v>0.04399538040161133</v>
+        <v>0.05068135261535645</v>
       </c>
       <c r="S79" t="n">
-        <v>0.009759426116943359</v>
+        <v>0.01102495193481445</v>
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>0.04399538040161133</v>
+        <v>0.05068135261535645</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -12038,18 +12038,18 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.01331615447998047</v>
+        <v>0.01474189758300781</v>
       </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="n">
-        <v>0.5178604125976562</v>
+        <v>0.6949625015258789</v>
       </c>
       <c r="S80" t="n">
-        <v>0.01331615447998047</v>
+        <v>0.01474189758300781</v>
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>0.5178604125976562</v>
+        <v>0.6949625015258789</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -12184,22 +12184,22 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.004010677337646484</v>
+        <v>0.00601649284362793</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.002008199691772461</v>
+        <v>0.002560615539550781</v>
       </c>
       <c r="R81" t="n">
-        <v>0.39510178565979</v>
+        <v>0.4993140697479248</v>
       </c>
       <c r="S81" t="n">
-        <v>0.004010677337646484</v>
+        <v>0.00601649284362793</v>
       </c>
       <c r="T81" t="n">
-        <v>0.002008199691772461</v>
+        <v>0.002560615539550781</v>
       </c>
       <c r="U81" t="n">
-        <v>0.39510178565979</v>
+        <v>0.4993140697479248</v>
       </c>
       <c r="V81" t="n">
         <v>1</v>
@@ -12334,22 +12334,22 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.06094717979431152</v>
+        <v>0.0663902759552002</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.04106998443603516</v>
+        <v>0.03776407241821289</v>
       </c>
       <c r="R82" t="n">
-        <v>0.7591803073883057</v>
+        <v>0.8755040168762207</v>
       </c>
       <c r="S82" t="n">
-        <v>0.06094717979431152</v>
+        <v>0.0663902759552002</v>
       </c>
       <c r="T82" t="n">
-        <v>0.04106998443603516</v>
+        <v>0.03776407241821289</v>
       </c>
       <c r="U82" t="n">
-        <v>0.7591803073883057</v>
+        <v>0.8755040168762207</v>
       </c>
       <c r="V82" t="n">
         <v>1</v>
@@ -12484,22 +12484,22 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0629124641418457</v>
+        <v>0.06923699378967285</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.03937292098999023</v>
+        <v>0.04107189178466797</v>
       </c>
       <c r="R83" t="n">
-        <v>0.8062152862548828</v>
+        <v>0.8214466571807861</v>
       </c>
       <c r="S83" t="n">
-        <v>0.0629124641418457</v>
+        <v>0.06923699378967285</v>
       </c>
       <c r="T83" t="n">
-        <v>0.03937292098999023</v>
+        <v>0.04107189178466797</v>
       </c>
       <c r="U83" t="n">
-        <v>0.8062152862548828</v>
+        <v>0.8214466571807861</v>
       </c>
       <c r="V83" t="n">
         <v>1</v>
@@ -12634,22 +12634,22 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.06577348709106445</v>
+        <v>0.07115888595581055</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.04096221923828125</v>
+        <v>0.03802633285522461</v>
       </c>
       <c r="R84" t="n">
-        <v>0.6540055274963379</v>
+        <v>0.6506946086883545</v>
       </c>
       <c r="S84" t="n">
-        <v>0.06577348709106445</v>
+        <v>0.07115888595581055</v>
       </c>
       <c r="T84" t="n">
-        <v>0.04096221923828125</v>
+        <v>0.03802633285522461</v>
       </c>
       <c r="U84" t="n">
-        <v>0.6540055274963379</v>
+        <v>0.6506946086883545</v>
       </c>
       <c r="V84" t="n">
         <v>1</v>
@@ -12736,7 +12736,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CatBoost_r198_FULL</t>
+          <t>CatBoost_r49_FULL</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -12746,34 +12746,34 @@
         <v>0.9542857142857143</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.9</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7681159420289855</v>
+        <v>0.8128654970760234</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="I85" t="n">
         <v>0.8809523809523809</v>
       </c>
       <c r="J85" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>-0.3658385673799546</v>
+        <v>-0.3232123454621934</v>
       </c>
       <c r="M85" t="n">
-        <v>0.250222187305172</v>
+        <v>0.3241399682084042</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
@@ -12782,18 +12782,18 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.00200343132019043</v>
+        <v>0.002006292343139648</v>
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="n">
-        <v>0.1332883834838867</v>
+        <v>0.1177470684051514</v>
       </c>
       <c r="S85" t="n">
-        <v>0.00200343132019043</v>
+        <v>0.002006292343139648</v>
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>0.1332883834838867</v>
+        <v>0.1177470684051514</v>
       </c>
       <c r="V85" t="n">
         <v>1</v>
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
       <c r="X85" t="n">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="Y85" t="n">
         <v>19</v>
@@ -12814,16 +12814,16 @@
         <v>1</v>
       </c>
       <c r="AB85" t="n">
-        <v>159182</v>
+        <v>50075</v>
       </c>
       <c r="AC85" t="n">
-        <v>159182</v>
+        <v>50075</v>
       </c>
       <c r="AD85" t="n">
-        <v>159182</v>
+        <v>50075</v>
       </c>
       <c r="AE85" t="n">
-        <v>159182</v>
+        <v>50075</v>
       </c>
       <c r="AF85" t="n">
         <v>0</v>
@@ -12844,12 +12844,12 @@
       </c>
       <c r="AK85" t="inlineStr">
         <is>
-          <t>{'iterations': 133, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 115, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL85" t="inlineStr">
         <is>
-          <t>{'iterations': 133}</t>
+          <t>{'iterations': 115}</t>
         </is>
       </c>
       <c r="AM85" t="inlineStr">
@@ -12880,7 +12880,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CatBoost_r49_FULL</t>
+          <t>CatBoost_r198_FULL</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -12890,34 +12890,34 @@
         <v>0.9542857142857143</v>
       </c>
       <c r="D86" t="n">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8128654970760234</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="H86" t="n">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="I86" t="n">
         <v>0.8809523809523809</v>
       </c>
       <c r="J86" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.3232123454621934</v>
+        <v>-0.3658385673799546</v>
       </c>
       <c r="M86" t="n">
-        <v>0.3241399682084042</v>
+        <v>0.250222187305172</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
@@ -12926,18 +12926,18 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.003148078918457031</v>
+        <v>0.003000020980834961</v>
       </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="n">
-        <v>0.08171200752258301</v>
+        <v>0.1606254577636719</v>
       </c>
       <c r="S86" t="n">
-        <v>0.003148078918457031</v>
+        <v>0.003000020980834961</v>
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>0.08171200752258301</v>
+        <v>0.1606254577636719</v>
       </c>
       <c r="V86" t="n">
         <v>1</v>
@@ -12946,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="X86" t="n">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="Y86" t="n">
         <v>19</v>
@@ -12958,16 +12958,16 @@
         <v>1</v>
       </c>
       <c r="AB86" t="n">
-        <v>50075</v>
+        <v>159182</v>
       </c>
       <c r="AC86" t="n">
-        <v>50075</v>
+        <v>159182</v>
       </c>
       <c r="AD86" t="n">
-        <v>50075</v>
+        <v>159182</v>
       </c>
       <c r="AE86" t="n">
-        <v>50075</v>
+        <v>159182</v>
       </c>
       <c r="AF86" t="n">
         <v>0</v>
@@ -12988,12 +12988,12 @@
       </c>
       <c r="AK86" t="inlineStr">
         <is>
-          <t>{'iterations': 115, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 133, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL86" t="inlineStr">
         <is>
-          <t>{'iterations': 115}</t>
+          <t>{'iterations': 133}</t>
         </is>
       </c>
       <c r="AM86" t="inlineStr">
@@ -13072,22 +13072,22 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.04323911666870117</v>
+        <v>0.04197359085083008</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.009756088256835938</v>
+        <v>0.00775909423828125</v>
       </c>
       <c r="R87" t="n">
-        <v>1.010809659957886</v>
+        <v>1.557733297348022</v>
       </c>
       <c r="S87" t="n">
-        <v>0.04323911666870117</v>
+        <v>0.04197359085083008</v>
       </c>
       <c r="T87" t="n">
-        <v>0.009756088256835938</v>
+        <v>0.00775909423828125</v>
       </c>
       <c r="U87" t="n">
-        <v>1.010809659957886</v>
+        <v>1.557733297348022</v>
       </c>
       <c r="V87" t="n">
         <v>1</v>
@@ -13220,18 +13220,18 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0148777961730957</v>
+        <v>0.01572751998901367</v>
       </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="n">
-        <v>0.3882660865783691</v>
+        <v>0.5120792388916016</v>
       </c>
       <c r="S88" t="n">
-        <v>0.0148777961730957</v>
+        <v>0.01572751998901367</v>
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>0.3882660865783691</v>
+        <v>0.5120792388916016</v>
       </c>
       <c r="V88" t="n">
         <v>1</v>
@@ -13366,22 +13366,22 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.009692192077636719</v>
+        <v>0.009706258773803711</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.007002830505371094</v>
+        <v>0.00497889518737793</v>
       </c>
       <c r="R89" t="n">
-        <v>2.099082231521606</v>
+        <v>2.071203231811523</v>
       </c>
       <c r="S89" t="n">
-        <v>0.009692192077636719</v>
+        <v>0.009706258773803711</v>
       </c>
       <c r="T89" t="n">
-        <v>0.007002830505371094</v>
+        <v>0.00497889518737793</v>
       </c>
       <c r="U89" t="n">
-        <v>2.099082231521606</v>
+        <v>2.071203231811523</v>
       </c>
       <c r="V89" t="n">
         <v>1</v>
@@ -13468,7 +13468,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CatBoost_r198</t>
+          <t>CatBoost_r177</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -13478,37 +13478,37 @@
         <v>0.9371428571428571</v>
       </c>
       <c r="D90" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7971428571428572</v>
+        <v>0.8371428571428572</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G90" t="n">
-        <v>0.782312925170068</v>
+        <v>0.8552036199095023</v>
       </c>
       <c r="H90" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="I90" t="n">
         <v>0.8714285714285714</v>
       </c>
       <c r="J90" t="n">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K90" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.2841771808694691</v>
+        <v>-0.2379594444788266</v>
       </c>
       <c r="M90" t="n">
-        <v>0.3946506832181051</v>
+        <v>0.4817732876625435</v>
       </c>
       <c r="N90" t="n">
-        <v>0.7656458160694094</v>
+        <v>0.7484556053849533</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -13516,22 +13516,22 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="R90" t="n">
-        <v>0.6858105659484863</v>
+        <v>0.6465764045715332</v>
       </c>
       <c r="S90" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="U90" t="n">
-        <v>0.6858105659484863</v>
+        <v>0.6465764045715332</v>
       </c>
       <c r="V90" t="n">
         <v>1</v>
@@ -13540,7 +13540,7 @@
         <v>1</v>
       </c>
       <c r="X90" t="n">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="Y90" t="n">
         <v>19</v>
@@ -13552,16 +13552,16 @@
         <v>1</v>
       </c>
       <c r="AB90" t="n">
-        <v>182461</v>
+        <v>155285</v>
       </c>
       <c r="AC90" t="n">
-        <v>182461</v>
+        <v>155285</v>
       </c>
       <c r="AD90" t="n">
-        <v>182461</v>
+        <v>155285</v>
       </c>
       <c r="AE90" t="n">
-        <v>182461</v>
+        <v>155285</v>
       </c>
       <c r="AF90" t="n">
         <v>0</v>
@@ -13582,12 +13582,12 @@
       </c>
       <c r="AK90" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.06864209415792857, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.1542798306067823, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL90" t="inlineStr">
         <is>
-          <t>{'iterations': 133}</t>
+          <t>{'iterations': 109}</t>
         </is>
       </c>
       <c r="AM90" t="inlineStr">
@@ -13618,7 +13618,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CatBoost_r177</t>
+          <t>CatBoost_r198</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -13628,37 +13628,37 @@
         <v>0.9371428571428571</v>
       </c>
       <c r="D91" t="n">
-        <v>0.90625</v>
+        <v>0.84375</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8371428571428572</v>
+        <v>0.7971428571428572</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8552036199095023</v>
+        <v>0.782312925170068</v>
       </c>
       <c r="H91" t="n">
-        <v>0.90625</v>
+        <v>0.84375</v>
       </c>
       <c r="I91" t="n">
         <v>0.8714285714285714</v>
       </c>
       <c r="J91" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="K91" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.2379594444788266</v>
+        <v>-0.2841771808694691</v>
       </c>
       <c r="M91" t="n">
-        <v>0.4817732876625435</v>
+        <v>0.3946506832181051</v>
       </c>
       <c r="N91" t="n">
-        <v>0.7484556053849533</v>
+        <v>0.7656458160694094</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -13666,22 +13666,22 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.005016326904296875</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>0.002657651901245117</v>
       </c>
       <c r="R91" t="n">
-        <v>0.6290290355682373</v>
+        <v>0.8774576187133789</v>
       </c>
       <c r="S91" t="n">
-        <v>0.005016326904296875</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>0.002657651901245117</v>
       </c>
       <c r="U91" t="n">
-        <v>0.6290290355682373</v>
+        <v>0.8774576187133789</v>
       </c>
       <c r="V91" t="n">
         <v>1</v>
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="X91" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="Y91" t="n">
         <v>19</v>
@@ -13702,16 +13702,16 @@
         <v>1</v>
       </c>
       <c r="AB91" t="n">
-        <v>155285</v>
+        <v>182461</v>
       </c>
       <c r="AC91" t="n">
-        <v>155285</v>
+        <v>182461</v>
       </c>
       <c r="AD91" t="n">
-        <v>155285</v>
+        <v>182461</v>
       </c>
       <c r="AE91" t="n">
-        <v>155285</v>
+        <v>182461</v>
       </c>
       <c r="AF91" t="n">
         <v>0</v>
@@ -13732,12 +13732,12 @@
       </c>
       <c r="AK91" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.06864209415792857, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.1542798306067823, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.04387418552563314, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.637071465711953, 'max_ctr_complexity': 4, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL91" t="inlineStr">
         <is>
-          <t>{'iterations': 109}</t>
+          <t>{'iterations': 133}</t>
         </is>
       </c>
       <c r="AM91" t="inlineStr">
@@ -13768,7 +13768,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r187</t>
+          <t>NeuralNetTorch_r14_FULL</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -13781,13 +13781,13 @@
         <v>0.90625</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8885714285714286</v>
+        <v>0.8371428571428572</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G92" t="n">
-        <v>0.8693877551020408</v>
+        <v>0.8552036199095023</v>
       </c>
       <c r="H92" t="n">
         <v>0.90625</v>
@@ -13796,42 +13796,36 @@
         <v>0.8752628324056895</v>
       </c>
       <c r="J92" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K92" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.2165970408451998</v>
+        <v>-0.2316939578251947</v>
       </c>
       <c r="M92" t="n">
-        <v>0.5234235669459794</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.803869445505475</v>
-      </c>
+        <v>0.4938972670274046</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.003744125366210938</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.01242685317993164</v>
-      </c>
+        <v>0.01092314720153809</v>
+      </c>
+      <c r="Q92" t="inlineStr"/>
       <c r="R92" t="n">
-        <v>1.953250646591187</v>
+        <v>0.2115237712860107</v>
       </c>
       <c r="S92" t="n">
-        <v>0.003744125366210938</v>
-      </c>
-      <c r="T92" t="n">
-        <v>0.01242685317993164</v>
-      </c>
+        <v>0.01092314720153809</v>
+      </c>
+      <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>1.953250646591187</v>
+        <v>0.2115237712860107</v>
       </c>
       <c r="V92" t="n">
         <v>1</v>
@@ -13840,7 +13834,7 @@
         <v>1</v>
       </c>
       <c r="X92" t="n">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="Y92" t="n">
         <v>19</v>
@@ -13852,16 +13846,16 @@
         <v>1</v>
       </c>
       <c r="AB92" t="n">
-        <v>170593</v>
+        <v>29289</v>
       </c>
       <c r="AC92" t="n">
-        <v>170593</v>
+        <v>29289</v>
       </c>
       <c r="AD92" t="n">
-        <v>170593</v>
+        <v>29289</v>
       </c>
       <c r="AE92" t="n">
-        <v>170593</v>
+        <v>29289</v>
       </c>
       <c r="AF92" t="n">
         <v>0</v>
@@ -13871,28 +13865,28 @@
       </c>
       <c r="AH92" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>TabularNeuralNetTorchModel</t>
         </is>
       </c>
       <c r="AI92" t="inlineStr"/>
       <c r="AJ92" t="inlineStr">
         <is>
-          <t>log_loss</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="AK92" t="inlineStr">
         <is>
-          <t>{'layers': [200, 100, 50], 'emb_drop': 0.5074958658302495, 'ps': 0.34814978753283593, 'bs': 1024, 'lr': 0.026342427824862867, 'epochs': 42, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
+          <t>{'num_epochs': 13, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.3905837860053583, 'optimizer': 'adam', 'learning_rate': 0.0018297905295930797, 'weight_decay': 9.178069874232892e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 1, 'hidden_size': 106, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
         </is>
       </c>
       <c r="AL92" t="inlineStr">
         <is>
-          <t>{'epochs': 42, 'best_epoch': 16}</t>
+          <t>{'batch_size': 32, 'num_epochs': 0}</t>
         </is>
       </c>
       <c r="AM92" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN92" t="inlineStr">
@@ -13918,7 +13912,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r14_FULL</t>
+          <t>NeuralNetFastAI_r156</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -13928,54 +13922,60 @@
         <v>0.96</v>
       </c>
       <c r="D93" t="n">
-        <v>0.90625</v>
+        <v>0.84375</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8371428571428572</v>
+        <v>0.8485714285714285</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8552036199095023</v>
+        <v>0.7997496871088861</v>
       </c>
       <c r="H93" t="n">
-        <v>0.90625</v>
+        <v>0.84375</v>
       </c>
       <c r="I93" t="n">
         <v>0.8752628324056895</v>
       </c>
       <c r="J93" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="K93" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.2316939578251947</v>
+        <v>-0.322694083214887</v>
       </c>
       <c r="M93" t="n">
-        <v>0.4938972670274046</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0.3250581752381062</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.8242573368395737</v>
+      </c>
       <c r="O93" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.007765531539916992</v>
-      </c>
-      <c r="Q93" t="inlineStr"/>
+        <v>0.01210403442382812</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.01000118255615234</v>
+      </c>
       <c r="R93" t="n">
-        <v>0.1648497581481934</v>
+        <v>2.02921462059021</v>
       </c>
       <c r="S93" t="n">
-        <v>0.007765531539916992</v>
-      </c>
-      <c r="T93" t="inlineStr"/>
+        <v>0.01210403442382812</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.01000118255615234</v>
+      </c>
       <c r="U93" t="n">
-        <v>0.1648497581481934</v>
+        <v>2.02921462059021</v>
       </c>
       <c r="V93" t="n">
         <v>1</v>
@@ -13984,7 +13984,7 @@
         <v>1</v>
       </c>
       <c r="X93" t="n">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="Y93" t="n">
         <v>19</v>
@@ -13996,16 +13996,16 @@
         <v>1</v>
       </c>
       <c r="AB93" t="n">
-        <v>29289</v>
+        <v>84222</v>
       </c>
       <c r="AC93" t="n">
-        <v>29289</v>
+        <v>84222</v>
       </c>
       <c r="AD93" t="n">
-        <v>29289</v>
+        <v>84222</v>
       </c>
       <c r="AE93" t="n">
-        <v>29289</v>
+        <v>84222</v>
       </c>
       <c r="AF93" t="n">
         <v>0</v>
@@ -14015,28 +14015,28 @@
       </c>
       <c r="AH93" t="inlineStr">
         <is>
-          <t>TabularNeuralNetTorchModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI93" t="inlineStr"/>
       <c r="AJ93" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>log_loss</t>
         </is>
       </c>
       <c r="AK93" t="inlineStr">
         <is>
-          <t>{'num_epochs': 13, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.3905837860053583, 'optimizer': 'adam', 'learning_rate': 0.0018297905295930797, 'weight_decay': 9.178069874232892e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 1, 'hidden_size': 106, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
+          <t>{'layers': [400], 'emb_drop': 0.5055288166864152, 'ps': 0.06572612802222005, 'bs': 2048, 'lr': 0.0047762208542912405, 'epochs': 44, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
         </is>
       </c>
       <c r="AL93" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 0}</t>
+          <t>{'epochs': 44, 'best_epoch': 18}</t>
         </is>
       </c>
       <c r="AM93" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN93" t="inlineStr">
@@ -14110,22 +14110,22 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.01177811622619629</v>
+        <v>0.01388812065124512</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.01666140556335449</v>
+        <v>0.008450508117675781</v>
       </c>
       <c r="R94" t="n">
-        <v>1.408637285232544</v>
+        <v>1.821963310241699</v>
       </c>
       <c r="S94" t="n">
-        <v>0.01177811622619629</v>
+        <v>0.01388812065124512</v>
       </c>
       <c r="T94" t="n">
-        <v>0.01666140556335449</v>
+        <v>0.008450508117675781</v>
       </c>
       <c r="U94" t="n">
-        <v>1.408637285232544</v>
+        <v>1.821963310241699</v>
       </c>
       <c r="V94" t="n">
         <v>1</v>
@@ -14258,18 +14258,18 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.01203536987304688</v>
+        <v>0.01388859748840332</v>
       </c>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>0.9065182209014893</v>
+        <v>1.21757960319519</v>
       </c>
       <c r="S95" t="n">
-        <v>0.01203536987304688</v>
+        <v>0.01388859748840332</v>
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>0.9065182209014893</v>
+        <v>1.21757960319519</v>
       </c>
       <c r="V95" t="n">
         <v>1</v>
@@ -14356,7 +14356,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r156</t>
+          <t>NeuralNetFastAI_r187</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -14366,37 +14366,37 @@
         <v>0.96</v>
       </c>
       <c r="D96" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8485714285714285</v>
+        <v>0.8885714285714286</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7997496871088861</v>
+        <v>0.8693877551020408</v>
       </c>
       <c r="H96" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="I96" t="n">
         <v>0.8752628324056895</v>
       </c>
       <c r="J96" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="K96" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.322694083214887</v>
+        <v>-0.2165970408451998</v>
       </c>
       <c r="M96" t="n">
-        <v>0.3250581752381062</v>
+        <v>0.5234235669459794</v>
       </c>
       <c r="N96" t="n">
-        <v>0.8242573368395737</v>
+        <v>0.803869445505475</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -14404,22 +14404,22 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.01292061805725098</v>
+        <v>0.0141146183013916</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.02056241035461426</v>
+        <v>0.0117332935333252</v>
       </c>
       <c r="R96" t="n">
-        <v>1.737018823623657</v>
+        <v>2.676100730895996</v>
       </c>
       <c r="S96" t="n">
-        <v>0.01292061805725098</v>
+        <v>0.0141146183013916</v>
       </c>
       <c r="T96" t="n">
-        <v>0.02056241035461426</v>
+        <v>0.0117332935333252</v>
       </c>
       <c r="U96" t="n">
-        <v>1.737018823623657</v>
+        <v>2.676100730895996</v>
       </c>
       <c r="V96" t="n">
         <v>1</v>
@@ -14428,7 +14428,7 @@
         <v>1</v>
       </c>
       <c r="X96" t="n">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="Y96" t="n">
         <v>19</v>
@@ -14440,16 +14440,16 @@
         <v>1</v>
       </c>
       <c r="AB96" t="n">
-        <v>84222</v>
+        <v>170593</v>
       </c>
       <c r="AC96" t="n">
-        <v>84222</v>
+        <v>170593</v>
       </c>
       <c r="AD96" t="n">
-        <v>84222</v>
+        <v>170593</v>
       </c>
       <c r="AE96" t="n">
-        <v>84222</v>
+        <v>170593</v>
       </c>
       <c r="AF96" t="n">
         <v>0</v>
@@ -14470,12 +14470,12 @@
       </c>
       <c r="AK96" t="inlineStr">
         <is>
-          <t>{'layers': [400], 'emb_drop': 0.5055288166864152, 'ps': 0.06572612802222005, 'bs': 2048, 'lr': 0.0047762208542912405, 'epochs': 44, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
+          <t>{'layers': [200, 100, 50], 'emb_drop': 0.5074958658302495, 'ps': 0.34814978753283593, 'bs': 1024, 'lr': 0.026342427824862867, 'epochs': 42, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
         </is>
       </c>
       <c r="AL96" t="inlineStr">
         <is>
-          <t>{'epochs': 44, 'best_epoch': 18}</t>
+          <t>{'epochs': 42, 'best_epoch': 16}</t>
         </is>
       </c>
       <c r="AM96" t="inlineStr">
@@ -14552,18 +14552,18 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.06471896171569824</v>
+        <v>0.08230018615722656</v>
       </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="n">
-        <v>0.8364996910095215</v>
+        <v>0.9561741352081299</v>
       </c>
       <c r="S97" t="n">
-        <v>0.06471896171569824</v>
+        <v>0.08230018615722656</v>
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="n">
-        <v>0.8364996910095215</v>
+        <v>0.9561741352081299</v>
       </c>
       <c r="V97" t="n">
         <v>1</v>
@@ -14650,7 +14650,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CatBoost_r69</t>
+          <t>LightGBM_r188</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -14660,37 +14660,37 @@
         <v>0.9371428571428572</v>
       </c>
       <c r="D98" t="n">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.7971428571428572</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.782312925170068</v>
       </c>
       <c r="H98" t="n">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="I98" t="n">
         <v>0.8691308691308692</v>
       </c>
       <c r="J98" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="K98" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.2364069435320946</v>
+        <v>-0.2749394285122023</v>
       </c>
       <c r="M98" t="n">
-        <v>0.4847703329110403</v>
+        <v>0.4117437743988294</v>
       </c>
       <c r="N98" t="n">
-        <v>0.7588555541680543</v>
+        <v>0.7265935145890389</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -14698,22 +14698,22 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.003736257553100586</v>
+        <v>0.004001379013061523</v>
       </c>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="R98" t="n">
-        <v>0.5405645370483398</v>
+        <v>0.354121208190918</v>
       </c>
       <c r="S98" t="n">
-        <v>0.003736257553100586</v>
+        <v>0.004001379013061523</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="U98" t="n">
-        <v>0.5405645370483398</v>
+        <v>0.354121208190918</v>
       </c>
       <c r="V98" t="n">
         <v>1</v>
@@ -14722,7 +14722,7 @@
         <v>1</v>
       </c>
       <c r="X98" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Y98" t="n">
         <v>19</v>
@@ -14734,16 +14734,16 @@
         <v>1</v>
       </c>
       <c r="AB98" t="n">
-        <v>100723</v>
+        <v>412906</v>
       </c>
       <c r="AC98" t="n">
-        <v>100723</v>
+        <v>412906</v>
       </c>
       <c r="AD98" t="n">
-        <v>100723</v>
+        <v>412906</v>
       </c>
       <c r="AE98" t="n">
-        <v>100723</v>
+        <v>412906</v>
       </c>
       <c r="AF98" t="n">
         <v>0</v>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="AH98" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI98" t="inlineStr"/>
@@ -14764,12 +14764,12 @@
       </c>
       <c r="AK98" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
+          <t>{'learning_rate': 0.033929021353492905, 'extra_trees': True, 'feature_fraction': 0.8282601210460099, 'min_data_in_leaf': 6, 'num_leaves': 127}</t>
         </is>
       </c>
       <c r="AL98" t="inlineStr">
         <is>
-          <t>{'iterations': 110}</t>
+          <t>{'num_boost_round': 211}</t>
         </is>
       </c>
       <c r="AM98" t="inlineStr">
@@ -14800,7 +14800,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CatBoost_r50</t>
+          <t>CatBoost_r69</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -14810,37 +14810,37 @@
         <v>0.9371428571428572</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="E99" t="n">
-        <v>0.7771428571428571</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="F99" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G99" t="n">
-        <v>0.75</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="I99" t="n">
         <v>0.8691308691308692</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K99" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.2739264745560827</v>
+        <v>-0.2364069435320946</v>
       </c>
       <c r="M99" t="n">
-        <v>0.4136277397674761</v>
+        <v>0.4847703329110403</v>
       </c>
       <c r="N99" t="n">
-        <v>0.7733573039279561</v>
+        <v>0.7588555541680543</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -14848,22 +14848,22 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.004007339477539062</v>
+        <v>0.004012346267700195</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="R99" t="n">
-        <v>0.6140084266662598</v>
+        <v>0.590315580368042</v>
       </c>
       <c r="S99" t="n">
-        <v>0.004007339477539062</v>
+        <v>0.004012346267700195</v>
       </c>
       <c r="T99" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="U99" t="n">
-        <v>0.6140084266662598</v>
+        <v>0.590315580368042</v>
       </c>
       <c r="V99" t="n">
         <v>1</v>
@@ -14872,7 +14872,7 @@
         <v>1</v>
       </c>
       <c r="X99" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Y99" t="n">
         <v>19</v>
@@ -14884,16 +14884,16 @@
         <v>1</v>
       </c>
       <c r="AB99" t="n">
-        <v>89215</v>
+        <v>100723</v>
       </c>
       <c r="AC99" t="n">
-        <v>89215</v>
+        <v>100723</v>
       </c>
       <c r="AD99" t="n">
-        <v>89215</v>
+        <v>100723</v>
       </c>
       <c r="AE99" t="n">
-        <v>89215</v>
+        <v>100723</v>
       </c>
       <c r="AF99" t="n">
         <v>0</v>
@@ -14914,12 +14914,12 @@
       </c>
       <c r="AK99" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL99" t="inlineStr">
         <is>
-          <t>{'iterations': 77}</t>
+          <t>{'iterations': 110}</t>
         </is>
       </c>
       <c r="AM99" t="inlineStr">
@@ -14950,7 +14950,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CatBoost_r180</t>
+          <t>CatBoost_r50</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -14960,37 +14960,37 @@
         <v>0.9371428571428572</v>
       </c>
       <c r="D100" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.7771428571428571</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.75</v>
       </c>
       <c r="H100" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="I100" t="n">
         <v>0.8691308691308692</v>
       </c>
       <c r="J100" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K100" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.2510652396057366</v>
+        <v>-0.2739264745560827</v>
       </c>
       <c r="M100" t="n">
-        <v>0.4566578821964213</v>
+        <v>0.4136277397674761</v>
       </c>
       <c r="N100" t="n">
-        <v>0.7393740761850535</v>
+        <v>0.7733573039279561</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -14998,22 +14998,22 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0040130615234375</v>
+        <v>0.004013776779174805</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
       </c>
       <c r="R100" t="n">
-        <v>1.578358888626099</v>
+        <v>0.5833733081817627</v>
       </c>
       <c r="S100" t="n">
-        <v>0.0040130615234375</v>
+        <v>0.004013776779174805</v>
       </c>
       <c r="T100" t="n">
         <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>1.578358888626099</v>
+        <v>0.5833733081817627</v>
       </c>
       <c r="V100" t="n">
         <v>1</v>
@@ -15022,7 +15022,7 @@
         <v>1</v>
       </c>
       <c r="X100" t="n">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="Y100" t="n">
         <v>19</v>
@@ -15034,16 +15034,16 @@
         <v>1</v>
       </c>
       <c r="AB100" t="n">
-        <v>408297</v>
+        <v>89215</v>
       </c>
       <c r="AC100" t="n">
-        <v>408297</v>
+        <v>89215</v>
       </c>
       <c r="AD100" t="n">
-        <v>408297</v>
+        <v>89215</v>
       </c>
       <c r="AE100" t="n">
-        <v>408297</v>
+        <v>89215</v>
       </c>
       <c r="AF100" t="n">
         <v>0</v>
@@ -15064,12 +15064,12 @@
       </c>
       <c r="AK100" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.055406199833457785, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 4.43335055453705, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL100" t="inlineStr">
         <is>
-          <t>{'iterations': 118}</t>
+          <t>{'iterations': 77}</t>
         </is>
       </c>
       <c r="AM100" t="inlineStr">
@@ -15100,7 +15100,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LightGBM_r188</t>
+          <t>CatBoost_r180</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -15110,37 +15110,37 @@
         <v>0.9371428571428572</v>
       </c>
       <c r="D101" t="n">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7971428571428572</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G101" t="n">
-        <v>0.782312925170068</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="H101" t="n">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="I101" t="n">
         <v>0.8691308691308692</v>
       </c>
       <c r="J101" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K101" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.2749394285122023</v>
+        <v>-0.2510652396057366</v>
       </c>
       <c r="M101" t="n">
-        <v>0.4117437743988294</v>
+        <v>0.4566578821964213</v>
       </c>
       <c r="N101" t="n">
-        <v>0.7265935145890389</v>
+        <v>0.7393740761850535</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -15148,22 +15148,22 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.004198789596557617</v>
+        <v>0.004998445510864258</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>0.00221705436706543</v>
       </c>
       <c r="R101" t="n">
-        <v>0.3024904727935791</v>
+        <v>2.188007831573486</v>
       </c>
       <c r="S101" t="n">
-        <v>0.004198789596557617</v>
+        <v>0.004998445510864258</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>0.00221705436706543</v>
       </c>
       <c r="U101" t="n">
-        <v>0.3024904727935791</v>
+        <v>2.188007831573486</v>
       </c>
       <c r="V101" t="n">
         <v>1</v>
@@ -15172,7 +15172,7 @@
         <v>1</v>
       </c>
       <c r="X101" t="n">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="Y101" t="n">
         <v>19</v>
@@ -15184,16 +15184,16 @@
         <v>1</v>
       </c>
       <c r="AB101" t="n">
-        <v>412906</v>
+        <v>408297</v>
       </c>
       <c r="AC101" t="n">
-        <v>412906</v>
+        <v>408297</v>
       </c>
       <c r="AD101" t="n">
-        <v>412906</v>
+        <v>408297</v>
       </c>
       <c r="AE101" t="n">
-        <v>412906</v>
+        <v>408297</v>
       </c>
       <c r="AF101" t="n">
         <v>0</v>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="AH101" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI101" t="inlineStr"/>
@@ -15214,12 +15214,12 @@
       </c>
       <c r="AK101" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.033929021353492905, 'extra_trees': True, 'feature_fraction': 0.8282601210460099, 'min_data_in_leaf': 6, 'num_leaves': 127}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.055406199833457785, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 4.43335055453705, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL101" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 211}</t>
+          <t>{'iterations': 118}</t>
         </is>
       </c>
       <c r="AM101" t="inlineStr">
@@ -15298,22 +15298,22 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.01778984069824219</v>
+        <v>0.01773238182067871</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.003754377365112305</v>
+        <v>0.001999139785766602</v>
       </c>
       <c r="R102" t="n">
-        <v>0.4206757545471191</v>
+        <v>0.4459507465362549</v>
       </c>
       <c r="S102" t="n">
-        <v>0.01778984069824219</v>
+        <v>0.01773238182067871</v>
       </c>
       <c r="T102" t="n">
-        <v>0.003754377365112305</v>
+        <v>0.001999139785766602</v>
       </c>
       <c r="U102" t="n">
-        <v>0.4206757545471191</v>
+        <v>0.4459507465362549</v>
       </c>
       <c r="V102" t="n">
         <v>1</v>
@@ -15448,22 +15448,22 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.004006862640380859</v>
+        <v>0.004999399185180664</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.002002954483032227</v>
       </c>
       <c r="R103" t="n">
-        <v>2.014915466308594</v>
+        <v>2.208468914031982</v>
       </c>
       <c r="S103" t="n">
-        <v>0.004006862640380859</v>
+        <v>0.004999399185180664</v>
       </c>
       <c r="T103" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.002002954483032227</v>
       </c>
       <c r="U103" t="n">
-        <v>2.014915466308594</v>
+        <v>2.208468914031982</v>
       </c>
       <c r="V103" t="n">
         <v>1</v>
@@ -15596,18 +15596,18 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0</v>
+        <v>0.00970911979675293</v>
       </c>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="n">
-        <v>0.1929895877838135</v>
+        <v>0.2633607387542725</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>0.00970911979675293</v>
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="n">
-        <v>0.1929895877838135</v>
+        <v>0.2633607387542725</v>
       </c>
       <c r="V104" t="n">
         <v>1</v>
@@ -15694,7 +15694,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RandomForest_r195</t>
+          <t>RandomForest_r16</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -15728,13 +15728,13 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.2471544270791816</v>
+        <v>-0.2355957723883193</v>
       </c>
       <c r="M105" t="n">
-        <v>0.4641180408197904</v>
+        <v>0.4863382133498436</v>
       </c>
       <c r="N105" t="n">
-        <v>0.7200311810509179</v>
+        <v>0.6723424805447117</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -15742,22 +15742,22 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0.05207657814025879</v>
+        <v>0.06363940238952637</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.03795433044433594</v>
+        <v>0.0401768684387207</v>
       </c>
       <c r="R105" t="n">
-        <v>0.7349333763122559</v>
+        <v>1.026834964752197</v>
       </c>
       <c r="S105" t="n">
-        <v>0.05207657814025879</v>
+        <v>0.06363940238952637</v>
       </c>
       <c r="T105" t="n">
-        <v>0.03795433044433594</v>
+        <v>0.0401768684387207</v>
       </c>
       <c r="U105" t="n">
-        <v>0.7349333763122559</v>
+        <v>1.026834964752197</v>
       </c>
       <c r="V105" t="n">
         <v>1</v>
@@ -15766,7 +15766,7 @@
         <v>1</v>
       </c>
       <c r="X105" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="Y105" t="n">
         <v>19</v>
@@ -15778,16 +15778,16 @@
         <v>1</v>
       </c>
       <c r="AB105" t="n">
-        <v>907576</v>
+        <v>872214</v>
       </c>
       <c r="AC105" t="n">
-        <v>907576</v>
+        <v>872214</v>
       </c>
       <c r="AD105" t="n">
-        <v>907576</v>
+        <v>872214</v>
       </c>
       <c r="AE105" t="n">
-        <v>907576</v>
+        <v>872214</v>
       </c>
       <c r="AF105" t="n">
         <v>0</v>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="AK105" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 37308, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 1}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 48136, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="AL105" t="inlineStr">
@@ -15844,7 +15844,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RandomForest_r16</t>
+          <t>RandomForest_r195</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -15878,13 +15878,13 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.2355957723883193</v>
+        <v>-0.2471544270791816</v>
       </c>
       <c r="M106" t="n">
-        <v>0.4863382133498436</v>
+        <v>0.4641180408197904</v>
       </c>
       <c r="N106" t="n">
-        <v>0.6723424805447117</v>
+        <v>0.7200311810509179</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -15892,22 +15892,22 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0.05538201332092285</v>
+        <v>0.06841826438903809</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.03952527046203613</v>
+        <v>0.03819632530212402</v>
       </c>
       <c r="R106" t="n">
-        <v>0.8375446796417236</v>
+        <v>0.7729830741882324</v>
       </c>
       <c r="S106" t="n">
-        <v>0.05538201332092285</v>
+        <v>0.06841826438903809</v>
       </c>
       <c r="T106" t="n">
-        <v>0.03952527046203613</v>
+        <v>0.03819632530212402</v>
       </c>
       <c r="U106" t="n">
-        <v>0.8375446796417236</v>
+        <v>0.7729830741882324</v>
       </c>
       <c r="V106" t="n">
         <v>1</v>
@@ -15916,7 +15916,7 @@
         <v>1</v>
       </c>
       <c r="X106" t="n">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="Y106" t="n">
         <v>19</v>
@@ -15928,16 +15928,16 @@
         <v>1</v>
       </c>
       <c r="AB106" t="n">
-        <v>872214</v>
+        <v>907576</v>
       </c>
       <c r="AC106" t="n">
-        <v>872214</v>
+        <v>907576</v>
       </c>
       <c r="AD106" t="n">
-        <v>872214</v>
+        <v>907576</v>
       </c>
       <c r="AE106" t="n">
-        <v>872214</v>
+        <v>907576</v>
       </c>
       <c r="AF106" t="n">
         <v>0</v>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="AK106" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 48136, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 1.0, 'min_samples_leaf': 1}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 37308, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="AL106" t="inlineStr">
@@ -16040,18 +16040,18 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0.0155482292175293</v>
+        <v>0.01539468765258789</v>
       </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>0.3726282119750977</v>
+        <v>0.494143009185791</v>
       </c>
       <c r="S107" t="n">
-        <v>0.0155482292175293</v>
+        <v>0.01539468765258789</v>
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="n">
-        <v>0.3726282119750977</v>
+        <v>0.494143009185791</v>
       </c>
       <c r="V107" t="n">
         <v>1</v>
@@ -16186,22 +16186,22 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0.01619839668273926</v>
+        <v>0.01651597023010254</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.004400253295898438</v>
+        <v>0.004873275756835938</v>
       </c>
       <c r="R108" t="n">
-        <v>0.3202571868896484</v>
+        <v>0.6132943630218506</v>
       </c>
       <c r="S108" t="n">
-        <v>0.01619839668273926</v>
+        <v>0.01651597023010254</v>
       </c>
       <c r="T108" t="n">
-        <v>0.004400253295898438</v>
+        <v>0.004873275756835938</v>
       </c>
       <c r="U108" t="n">
-        <v>0.3202571868896484</v>
+        <v>0.6132943630218506</v>
       </c>
       <c r="V108" t="n">
         <v>1</v>
@@ -16336,22 +16336,22 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.002549648284912109</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>0.5178096294403076</v>
+        <v>0.6625857353210449</v>
       </c>
       <c r="S109" t="n">
-        <v>0.002002954483032227</v>
+        <v>0.002549648284912109</v>
       </c>
       <c r="T109" t="n">
         <v>0</v>
       </c>
       <c r="U109" t="n">
-        <v>0.5178096294403076</v>
+        <v>0.6625857353210449</v>
       </c>
       <c r="V109" t="n">
         <v>1</v>
@@ -16438,7 +16438,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CatBoost_r49</t>
+          <t>LightGBM_r15</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -16448,37 +16448,37 @@
         <v>0.9314285714285715</v>
       </c>
       <c r="D110" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7971428571428572</v>
+        <v>0.8371428571428572</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G110" t="n">
-        <v>0.782312925170068</v>
+        <v>0.8552036199095023</v>
       </c>
       <c r="H110" t="n">
-        <v>0.84375</v>
+        <v>0.90625</v>
       </c>
       <c r="I110" t="n">
         <v>0.8626373626373627</v>
       </c>
       <c r="J110" t="n">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K110" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.2797772781302894</v>
+        <v>-0.2495557527463217</v>
       </c>
       <c r="M110" t="n">
-        <v>0.4027723301464304</v>
+        <v>0.4595340070910462</v>
       </c>
       <c r="N110" t="n">
-        <v>0.7574859304638717</v>
+        <v>0.6865490825512363</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -16486,22 +16486,22 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0.003909111022949219</v>
+        <v>0.004010915756225586</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>0.004827499389648438</v>
       </c>
       <c r="R110" t="n">
-        <v>0.5610415935516357</v>
+        <v>0.4715254306793213</v>
       </c>
       <c r="S110" t="n">
-        <v>0.003909111022949219</v>
+        <v>0.004010915756225586</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>0.004827499389648438</v>
       </c>
       <c r="U110" t="n">
-        <v>0.5610415935516357</v>
+        <v>0.4715254306793213</v>
       </c>
       <c r="V110" t="n">
         <v>1</v>
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="X110" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Y110" t="n">
         <v>19</v>
@@ -16522,16 +16522,16 @@
         <v>1</v>
       </c>
       <c r="AB110" t="n">
-        <v>73203</v>
+        <v>440195</v>
       </c>
       <c r="AC110" t="n">
-        <v>73203</v>
+        <v>440195</v>
       </c>
       <c r="AD110" t="n">
-        <v>73203</v>
+        <v>440195</v>
       </c>
       <c r="AE110" t="n">
-        <v>73203</v>
+        <v>440195</v>
       </c>
       <c r="AF110" t="n">
         <v>0</v>
@@ -16541,7 +16541,7 @@
       </c>
       <c r="AH110" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI110" t="inlineStr"/>
@@ -16552,12 +16552,12 @@
       </c>
       <c r="AK110" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
+          <t>{'learning_rate': 0.018603888565740096, 'extra_trees': False, 'feature_fraction': 0.7421180622507277, 'min_data_in_leaf': 6, 'num_leaves': 22}</t>
         </is>
       </c>
       <c r="AL110" t="inlineStr">
         <is>
-          <t>{'iterations': 115}</t>
+          <t>{'num_boost_round': 175}</t>
         </is>
       </c>
       <c r="AM110" t="inlineStr">
@@ -16588,7 +16588,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CatBoost_r128</t>
+          <t>CatBoost_r5</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -16598,37 +16598,37 @@
         <v>0.9314285714285715</v>
       </c>
       <c r="D111" t="n">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="E111" t="n">
-        <v>0.8371428571428572</v>
+        <v>0.7771428571428571</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.625</v>
       </c>
       <c r="G111" t="n">
-        <v>0.8552036199095023</v>
+        <v>0.75</v>
       </c>
       <c r="H111" t="n">
-        <v>0.90625</v>
+        <v>0.8125</v>
       </c>
       <c r="I111" t="n">
         <v>0.8626373626373627</v>
       </c>
       <c r="J111" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K111" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L111" t="n">
-        <v>-0.2608216523210454</v>
+        <v>-0.2827257114754118</v>
       </c>
       <c r="M111" t="n">
-        <v>0.4381738422888919</v>
+        <v>0.3973259548831988</v>
       </c>
       <c r="N111" t="n">
-        <v>0.729278386987197</v>
+        <v>0.7237545440670442</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -16636,22 +16636,22 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.006018400192260742</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.00142359733581543</v>
+        <v>0.006955146789550781</v>
       </c>
       <c r="R111" t="n">
-        <v>2.239845752716064</v>
+        <v>0.7887871265411377</v>
       </c>
       <c r="S111" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.006018400192260742</v>
       </c>
       <c r="T111" t="n">
-        <v>0.00142359733581543</v>
+        <v>0.006955146789550781</v>
       </c>
       <c r="U111" t="n">
-        <v>2.239845752716064</v>
+        <v>0.7887871265411377</v>
       </c>
       <c r="V111" t="n">
         <v>1</v>
@@ -16660,7 +16660,7 @@
         <v>1</v>
       </c>
       <c r="X111" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Y111" t="n">
         <v>19</v>
@@ -16672,16 +16672,16 @@
         <v>1</v>
       </c>
       <c r="AB111" t="n">
-        <v>609473</v>
+        <v>79033</v>
       </c>
       <c r="AC111" t="n">
-        <v>609473</v>
+        <v>79033</v>
       </c>
       <c r="AD111" t="n">
-        <v>609473</v>
+        <v>79033</v>
       </c>
       <c r="AE111" t="n">
-        <v>609473</v>
+        <v>79033</v>
       </c>
       <c r="AF111" t="n">
         <v>0</v>
@@ -16702,12 +16702,12 @@
       </c>
       <c r="AK111" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.055078095725390575, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.894432181094842, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL111" t="inlineStr">
         <is>
-          <t>{'iterations': 127}</t>
+          <t>{'iterations': 131}</t>
         </is>
       </c>
       <c r="AM111" t="inlineStr">
@@ -16738,7 +16738,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LightGBM_r15</t>
+          <t>CatBoost_r49</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -16748,37 +16748,37 @@
         <v>0.9314285714285715</v>
       </c>
       <c r="D112" t="n">
-        <v>0.90625</v>
+        <v>0.84375</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8371428571428572</v>
+        <v>0.7971428571428572</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8552036199095023</v>
+        <v>0.782312925170068</v>
       </c>
       <c r="H112" t="n">
-        <v>0.90625</v>
+        <v>0.84375</v>
       </c>
       <c r="I112" t="n">
         <v>0.8626373626373627</v>
       </c>
       <c r="J112" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="K112" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.2495557527463217</v>
+        <v>-0.2797772781302894</v>
       </c>
       <c r="M112" t="n">
-        <v>0.4595340070910462</v>
+        <v>0.4027723301464304</v>
       </c>
       <c r="N112" t="n">
-        <v>0.6865490825512363</v>
+        <v>0.7574859304638717</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -16786,22 +16786,22 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.006018877029418945</v>
       </c>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>0.002059698104858398</v>
       </c>
       <c r="R112" t="n">
-        <v>0.3415167331695557</v>
+        <v>0.7069993019104004</v>
       </c>
       <c r="S112" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.006018877029418945</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>0.002059698104858398</v>
       </c>
       <c r="U112" t="n">
-        <v>0.3415167331695557</v>
+        <v>0.7069993019104004</v>
       </c>
       <c r="V112" t="n">
         <v>1</v>
@@ -16810,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="X112" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Y112" t="n">
         <v>19</v>
@@ -16822,16 +16822,16 @@
         <v>1</v>
       </c>
       <c r="AB112" t="n">
-        <v>440195</v>
+        <v>73203</v>
       </c>
       <c r="AC112" t="n">
-        <v>440195</v>
+        <v>73203</v>
       </c>
       <c r="AD112" t="n">
-        <v>440195</v>
+        <v>73203</v>
       </c>
       <c r="AE112" t="n">
-        <v>440195</v>
+        <v>73203</v>
       </c>
       <c r="AF112" t="n">
         <v>0</v>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="AH112" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI112" t="inlineStr"/>
@@ -16852,12 +16852,12 @@
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.018603888565740096, 'extra_trees': False, 'feature_fraction': 0.7421180622507277, 'min_data_in_leaf': 6, 'num_leaves': 22}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.06028218319511302, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.353268454214423, 'max_ctr_complexity': 1, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 175}</t>
+          <t>{'iterations': 115}</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
@@ -16888,7 +16888,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CatBoost_r5</t>
+          <t>CatBoost_r70</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -16898,37 +16898,37 @@
         <v>0.9314285714285715</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7771428571428571</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="F113" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G113" t="n">
-        <v>0.75</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="H113" t="n">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="I113" t="n">
         <v>0.8626373626373627</v>
       </c>
       <c r="J113" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K113" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L113" t="n">
-        <v>-0.2827257114754118</v>
+        <v>-0.2740930721599019</v>
       </c>
       <c r="M113" t="n">
-        <v>0.3973259548831988</v>
+        <v>0.4133177810799277</v>
       </c>
       <c r="N113" t="n">
-        <v>0.7237545440670442</v>
+        <v>0.7014117731755116</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -16936,22 +16936,22 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>0.004352807998657227</v>
+        <v>0.006019115447998047</v>
       </c>
       <c r="Q113" t="n">
         <v>0</v>
       </c>
       <c r="R113" t="n">
-        <v>0.5697174072265625</v>
+        <v>1.047950029373169</v>
       </c>
       <c r="S113" t="n">
-        <v>0.004352807998657227</v>
+        <v>0.006019115447998047</v>
       </c>
       <c r="T113" t="n">
         <v>0</v>
       </c>
       <c r="U113" t="n">
-        <v>0.5697174072265625</v>
+        <v>1.047950029373169</v>
       </c>
       <c r="V113" t="n">
         <v>1</v>
@@ -16960,7 +16960,7 @@
         <v>1</v>
       </c>
       <c r="X113" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y113" t="n">
         <v>19</v>
@@ -16972,16 +16972,16 @@
         <v>1</v>
       </c>
       <c r="AB113" t="n">
-        <v>79033</v>
+        <v>204559</v>
       </c>
       <c r="AC113" t="n">
-        <v>79033</v>
+        <v>204559</v>
       </c>
       <c r="AD113" t="n">
-        <v>79033</v>
+        <v>204559</v>
       </c>
       <c r="AE113" t="n">
-        <v>79033</v>
+        <v>204559</v>
       </c>
       <c r="AF113" t="n">
         <v>0</v>
@@ -17002,12 +17002,12 @@
       </c>
       <c r="AK113" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.055078095725390575, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 2.894432181094842, 'max_ctr_complexity': 4, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.03743901034980473, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.3584121369544215, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL113" t="inlineStr">
         <is>
-          <t>{'iterations': 131}</t>
+          <t>{'iterations': 84}</t>
         </is>
       </c>
       <c r="AM113" t="inlineStr">
@@ -17038,7 +17038,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CatBoost_r70</t>
+          <t>CatBoost_r128</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -17048,37 +17048,37 @@
         <v>0.9314285714285715</v>
       </c>
       <c r="D114" t="n">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.8371428571428572</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.8552036199095023</v>
       </c>
       <c r="H114" t="n">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="I114" t="n">
         <v>0.8626373626373627</v>
       </c>
       <c r="J114" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K114" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.2740930721599019</v>
+        <v>-0.2608216523210454</v>
       </c>
       <c r="M114" t="n">
-        <v>0.4133177810799277</v>
+        <v>0.4381738422888919</v>
       </c>
       <c r="N114" t="n">
-        <v>0.7014117731755116</v>
+        <v>0.729278386987197</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -17086,22 +17086,22 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.004698514938354492</v>
+        <v>0.006606578826904297</v>
       </c>
       <c r="Q114" t="n">
-        <v>0</v>
+        <v>0.006927967071533203</v>
       </c>
       <c r="R114" t="n">
-        <v>0.9627256393432617</v>
+        <v>3.288930416107178</v>
       </c>
       <c r="S114" t="n">
-        <v>0.004698514938354492</v>
+        <v>0.006606578826904297</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>0.006927967071533203</v>
       </c>
       <c r="U114" t="n">
-        <v>0.9627256393432617</v>
+        <v>3.288930416107178</v>
       </c>
       <c r="V114" t="n">
         <v>1</v>
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="X114" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="Y114" t="n">
         <v>19</v>
@@ -17122,16 +17122,16 @@
         <v>1</v>
       </c>
       <c r="AB114" t="n">
-        <v>204559</v>
+        <v>609473</v>
       </c>
       <c r="AC114" t="n">
-        <v>204559</v>
+        <v>609473</v>
       </c>
       <c r="AD114" t="n">
-        <v>204559</v>
+        <v>609473</v>
       </c>
       <c r="AE114" t="n">
-        <v>204559</v>
+        <v>609473</v>
       </c>
       <c r="AF114" t="n">
         <v>0</v>
@@ -17152,12 +17152,12 @@
       </c>
       <c r="AK114" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.03743901034980473, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.3584121369544215, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL114" t="inlineStr">
         <is>
-          <t>{'iterations': 84}</t>
+          <t>{'iterations': 127}</t>
         </is>
       </c>
       <c r="AM114" t="inlineStr">
@@ -17234,18 +17234,18 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.004000425338745117</v>
       </c>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="n">
-        <v>0.2103681564331055</v>
+        <v>0.3137600421905518</v>
       </c>
       <c r="S115" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.004000425338745117</v>
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="n">
-        <v>0.2103681564331055</v>
+        <v>0.3137600421905518</v>
       </c>
       <c r="V115" t="n">
         <v>1</v>
@@ -17380,22 +17380,22 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0.006003618240356445</v>
+        <v>0.006000280380249023</v>
       </c>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>0.003972530364990234</v>
       </c>
       <c r="R116" t="n">
-        <v>0.4430375099182129</v>
+        <v>0.5795080661773682</v>
       </c>
       <c r="S116" t="n">
-        <v>0.006003618240356445</v>
+        <v>0.006000280380249023</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>0.003972530364990234</v>
       </c>
       <c r="U116" t="n">
-        <v>0.4430375099182129</v>
+        <v>0.5795080661773682</v>
       </c>
       <c r="V116" t="n">
         <v>1</v>
@@ -17530,22 +17530,22 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0.01177191734313965</v>
+        <v>0.01075029373168945</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.004966020584106445</v>
       </c>
       <c r="R117" t="n">
-        <v>0.2535324096679688</v>
+        <v>0.406611442565918</v>
       </c>
       <c r="S117" t="n">
-        <v>0.01177191734313965</v>
+        <v>0.01075029373168945</v>
       </c>
       <c r="T117" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.004966020584106445</v>
       </c>
       <c r="U117" t="n">
-        <v>0.2535324096679688</v>
+        <v>0.406611442565918</v>
       </c>
       <c r="V117" t="n">
         <v>1</v>
@@ -17680,22 +17680,22 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>0.004837751388549805</v>
+        <v>0.005855560302734375</v>
       </c>
       <c r="Q118" t="n">
-        <v>0</v>
+        <v>0.002644777297973633</v>
       </c>
       <c r="R118" t="n">
-        <v>2.432090520858765</v>
+        <v>2.681465625762939</v>
       </c>
       <c r="S118" t="n">
-        <v>0.004837751388549805</v>
+        <v>0.005855560302734375</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>0.002644777297973633</v>
       </c>
       <c r="U118" t="n">
-        <v>2.432090520858765</v>
+        <v>2.681465625762939</v>
       </c>
       <c r="V118" t="n">
         <v>1</v>
@@ -17830,22 +17830,22 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0.01202678680419922</v>
+        <v>0.01246905326843262</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.004006147384643555</v>
+        <v>0.005010128021240234</v>
       </c>
       <c r="R119" t="n">
-        <v>0.2665953636169434</v>
+        <v>0.3803167343139648</v>
       </c>
       <c r="S119" t="n">
-        <v>0.01202678680419922</v>
+        <v>0.01246905326843262</v>
       </c>
       <c r="T119" t="n">
-        <v>0.004006147384643555</v>
+        <v>0.005010128021240234</v>
       </c>
       <c r="U119" t="n">
-        <v>0.2665953636169434</v>
+        <v>0.3803167343139648</v>
       </c>
       <c r="V119" t="n">
         <v>1</v>
@@ -17978,18 +17978,18 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0.0653078556060791</v>
+        <v>0.07611179351806641</v>
       </c>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="n">
-        <v>0.5448195934295654</v>
+        <v>0.5715196132659912</v>
       </c>
       <c r="S120" t="n">
-        <v>0.0653078556060791</v>
+        <v>0.07611179351806641</v>
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="n">
-        <v>0.5448195934295654</v>
+        <v>0.5715196132659912</v>
       </c>
       <c r="V120" t="n">
         <v>1</v>
@@ -18124,22 +18124,22 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0.004005908966064453</v>
+        <v>0.002984046936035156</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.003602504730224609</v>
+        <v>0.002005815505981445</v>
       </c>
       <c r="R121" t="n">
-        <v>0.5842344760894775</v>
+        <v>0.7835183143615723</v>
       </c>
       <c r="S121" t="n">
-        <v>0.004005908966064453</v>
+        <v>0.002984046936035156</v>
       </c>
       <c r="T121" t="n">
-        <v>0.003602504730224609</v>
+        <v>0.002005815505981445</v>
       </c>
       <c r="U121" t="n">
-        <v>0.5842344760894775</v>
+        <v>0.7835183143615723</v>
       </c>
       <c r="V121" t="n">
         <v>1</v>
@@ -18226,7 +18226,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CatBoost_r137</t>
+          <t>CatBoost_r12</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -18236,37 +18236,37 @@
         <v>0.9257142857142857</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="E122" t="n">
-        <v>0.7771428571428571</v>
+        <v>0.7971428571428572</v>
       </c>
       <c r="F122" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G122" t="n">
-        <v>0.75</v>
+        <v>0.782312925170068</v>
       </c>
       <c r="H122" t="n">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="I122" t="n">
         <v>0.8571428571428572</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="K122" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.2951228115830293</v>
+        <v>-0.2668556529485547</v>
       </c>
       <c r="M122" t="n">
-        <v>0.3746005132267139</v>
+        <v>0.4268318339941233</v>
       </c>
       <c r="N122" t="n">
-        <v>0.7397170537795538</v>
+        <v>0.7512655304934717</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -18274,22 +18274,22 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0.004011154174804688</v>
+        <v>0.004007577896118164</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.01670002937316895</v>
+        <v>0.002506017684936523</v>
       </c>
       <c r="R122" t="n">
-        <v>0.5327272415161133</v>
+        <v>1.514673471450806</v>
       </c>
       <c r="S122" t="n">
-        <v>0.004011154174804688</v>
+        <v>0.004007577896118164</v>
       </c>
       <c r="T122" t="n">
-        <v>0.01670002937316895</v>
+        <v>0.002506017684936523</v>
       </c>
       <c r="U122" t="n">
-        <v>0.5327272415161133</v>
+        <v>1.514673471450806</v>
       </c>
       <c r="V122" t="n">
         <v>1</v>
@@ -18298,7 +18298,7 @@
         <v>1</v>
       </c>
       <c r="X122" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="Y122" t="n">
         <v>19</v>
@@ -18310,16 +18310,16 @@
         <v>1</v>
       </c>
       <c r="AB122" t="n">
-        <v>81005</v>
+        <v>545363</v>
       </c>
       <c r="AC122" t="n">
-        <v>81005</v>
+        <v>545363</v>
       </c>
       <c r="AD122" t="n">
-        <v>81005</v>
+        <v>545363</v>
       </c>
       <c r="AE122" t="n">
-        <v>81005</v>
+        <v>545363</v>
       </c>
       <c r="AF122" t="n">
         <v>0</v>
@@ -18340,12 +18340,12 @@
       </c>
       <c r="AK122" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.04939557741379516, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.559174625782161, 'max_ctr_complexity': 3, 'one_hot_max_size': 3}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.03534026385152556, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.835797074498082, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL122" t="inlineStr">
         <is>
-          <t>{'iterations': 138}</t>
+          <t>{'iterations': 239}</t>
         </is>
       </c>
       <c r="AM122" t="inlineStr">
@@ -18376,7 +18376,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CatBoost_r12</t>
+          <t>CatBoost_r60</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -18410,13 +18410,13 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L123" t="n">
-        <v>-0.2668556529485547</v>
+        <v>-0.2667066178004905</v>
       </c>
       <c r="M123" t="n">
-        <v>0.4268318339941233</v>
+        <v>0.4271110156072845</v>
       </c>
       <c r="N123" t="n">
-        <v>0.7512655304934717</v>
+        <v>0.7616150189679601</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -18424,22 +18424,22 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0.005510568618774414</v>
+        <v>0.005323171615600586</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>0.002004384994506836</v>
       </c>
       <c r="R123" t="n">
-        <v>1.104964971542358</v>
+        <v>0.8508784770965576</v>
       </c>
       <c r="S123" t="n">
-        <v>0.005510568618774414</v>
+        <v>0.005323171615600586</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>0.002004384994506836</v>
       </c>
       <c r="U123" t="n">
-        <v>1.104964971542358</v>
+        <v>0.8508784770965576</v>
       </c>
       <c r="V123" t="n">
         <v>1</v>
@@ -18448,7 +18448,7 @@
         <v>1</v>
       </c>
       <c r="X123" t="n">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="Y123" t="n">
         <v>19</v>
@@ -18460,16 +18460,16 @@
         <v>1</v>
       </c>
       <c r="AB123" t="n">
-        <v>545363</v>
+        <v>120163</v>
       </c>
       <c r="AC123" t="n">
-        <v>545363</v>
+        <v>120163</v>
       </c>
       <c r="AD123" t="n">
-        <v>545363</v>
+        <v>120163</v>
       </c>
       <c r="AE123" t="n">
-        <v>545363</v>
+        <v>120163</v>
       </c>
       <c r="AF123" t="n">
         <v>0</v>
@@ -18490,12 +18490,12 @@
       </c>
       <c r="AK123" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.03534026385152556, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.835797074498082, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.05291587380674719, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.3217885487525205, 'max_ctr_complexity': 5, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL123" t="inlineStr">
         <is>
-          <t>{'iterations': 239}</t>
+          <t>{'iterations': 141}</t>
         </is>
       </c>
       <c r="AM123" t="inlineStr">
@@ -18526,7 +18526,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CatBoost_r60</t>
+          <t>CatBoost_r13</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -18560,13 +18560,13 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.2667066178004905</v>
+        <v>-0.2775999816197798</v>
       </c>
       <c r="M124" t="n">
-        <v>0.4271110156072845</v>
+        <v>0.4068047103427945</v>
       </c>
       <c r="N124" t="n">
-        <v>0.7616150189679601</v>
+        <v>0.7616773783134078</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -18574,22 +18574,22 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>0.005800485610961914</v>
+        <v>0.006018161773681641</v>
       </c>
       <c r="Q124" t="n">
-        <v>0</v>
+        <v>0.001997709274291992</v>
       </c>
       <c r="R124" t="n">
-        <v>0.63114333152771</v>
+        <v>1.84858250617981</v>
       </c>
       <c r="S124" t="n">
-        <v>0.005800485610961914</v>
+        <v>0.006018161773681641</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>0.001997709274291992</v>
       </c>
       <c r="U124" t="n">
-        <v>0.63114333152771</v>
+        <v>1.84858250617981</v>
       </c>
       <c r="V124" t="n">
         <v>1</v>
@@ -18598,7 +18598,7 @@
         <v>1</v>
       </c>
       <c r="X124" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="Y124" t="n">
         <v>19</v>
@@ -18610,16 +18610,16 @@
         <v>1</v>
       </c>
       <c r="AB124" t="n">
-        <v>120163</v>
+        <v>1667628</v>
       </c>
       <c r="AC124" t="n">
-        <v>120163</v>
+        <v>1667628</v>
       </c>
       <c r="AD124" t="n">
-        <v>120163</v>
+        <v>1667628</v>
       </c>
       <c r="AE124" t="n">
-        <v>120163</v>
+        <v>1667628</v>
       </c>
       <c r="AF124" t="n">
         <v>0</v>
@@ -18640,12 +18640,12 @@
       </c>
       <c r="AK124" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.05291587380674719, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.3217885487525205, 'max_ctr_complexity': 5, 'one_hot_max_size': 3}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.017301189655111057, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.3274013177541373, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL124" t="inlineStr">
         <is>
-          <t>{'iterations': 141}</t>
+          <t>{'iterations': 397}</t>
         </is>
       </c>
       <c r="AM124" t="inlineStr">
@@ -18676,7 +18676,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CatBoost_r86</t>
+          <t>CatBoost_r137</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -18686,37 +18686,37 @@
         <v>0.9257142857142857</v>
       </c>
       <c r="D125" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.7771428571428571</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="G125" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.75</v>
       </c>
       <c r="H125" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="I125" t="n">
         <v>0.8571428571428572</v>
       </c>
       <c r="J125" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K125" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.2773514435375731</v>
+        <v>-0.2951228115830293</v>
       </c>
       <c r="M125" t="n">
-        <v>0.4072653454182192</v>
+        <v>0.3746005132267139</v>
       </c>
       <c r="N125" t="n">
-        <v>0.7208700000979413</v>
+        <v>0.7397170537795538</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -18724,22 +18724,22 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>0.006010055541992188</v>
+        <v>0.006018400192260742</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.001746416091918945</v>
+        <v>0.003003120422363281</v>
       </c>
       <c r="R125" t="n">
-        <v>1.243532419204712</v>
+        <v>0.5655293464660645</v>
       </c>
       <c r="S125" t="n">
-        <v>0.006010055541992188</v>
+        <v>0.006018400192260742</v>
       </c>
       <c r="T125" t="n">
-        <v>0.001746416091918945</v>
+        <v>0.003003120422363281</v>
       </c>
       <c r="U125" t="n">
-        <v>1.243532419204712</v>
+        <v>0.5655293464660645</v>
       </c>
       <c r="V125" t="n">
         <v>1</v>
@@ -18748,7 +18748,7 @@
         <v>1</v>
       </c>
       <c r="X125" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Y125" t="n">
         <v>19</v>
@@ -18760,16 +18760,16 @@
         <v>1</v>
       </c>
       <c r="AB125" t="n">
-        <v>874315</v>
+        <v>81005</v>
       </c>
       <c r="AC125" t="n">
-        <v>874315</v>
+        <v>81005</v>
       </c>
       <c r="AD125" t="n">
-        <v>874315</v>
+        <v>81005</v>
       </c>
       <c r="AE125" t="n">
-        <v>874315</v>
+        <v>81005</v>
       </c>
       <c r="AF125" t="n">
         <v>0</v>
@@ -18790,12 +18790,12 @@
       </c>
       <c r="AK125" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.032899230324940465, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.6376578537958237, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.04939557741379516, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 4.559174625782161, 'max_ctr_complexity': 3, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL125" t="inlineStr">
         <is>
-          <t>{'iterations': 204}</t>
+          <t>{'iterations': 138}</t>
         </is>
       </c>
       <c r="AM125" t="inlineStr">
@@ -18826,7 +18826,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CatBoost_r13</t>
+          <t>CatBoost_r86</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -18836,37 +18836,37 @@
         <v>0.9257142857142857</v>
       </c>
       <c r="D126" t="n">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7971428571428572</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G126" t="n">
-        <v>0.782312925170068</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="H126" t="n">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="I126" t="n">
         <v>0.8571428571428572</v>
       </c>
       <c r="J126" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K126" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.2775999816197798</v>
+        <v>-0.2773514435375731</v>
       </c>
       <c r="M126" t="n">
-        <v>0.4068047103427945</v>
+        <v>0.4072653454182192</v>
       </c>
       <c r="N126" t="n">
-        <v>0.7616773783134078</v>
+        <v>0.7208700000979413</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -18874,22 +18874,22 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>0.006015777587890625</v>
+        <v>0.006021261215209961</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.002001285552978516</v>
+        <v>0.003822565078735352</v>
       </c>
       <c r="R126" t="n">
-        <v>1.857183933258057</v>
+        <v>1.706958770751953</v>
       </c>
       <c r="S126" t="n">
-        <v>0.006015777587890625</v>
+        <v>0.006021261215209961</v>
       </c>
       <c r="T126" t="n">
-        <v>0.002001285552978516</v>
+        <v>0.003822565078735352</v>
       </c>
       <c r="U126" t="n">
-        <v>1.857183933258057</v>
+        <v>1.706958770751953</v>
       </c>
       <c r="V126" t="n">
         <v>1</v>
@@ -18898,7 +18898,7 @@
         <v>1</v>
       </c>
       <c r="X126" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="Y126" t="n">
         <v>19</v>
@@ -18910,16 +18910,16 @@
         <v>1</v>
       </c>
       <c r="AB126" t="n">
-        <v>1667628</v>
+        <v>874315</v>
       </c>
       <c r="AC126" t="n">
-        <v>1667628</v>
+        <v>874315</v>
       </c>
       <c r="AD126" t="n">
-        <v>1667628</v>
+        <v>874315</v>
       </c>
       <c r="AE126" t="n">
-        <v>1667628</v>
+        <v>874315</v>
       </c>
       <c r="AF126" t="n">
         <v>0</v>
@@ -18940,12 +18940,12 @@
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.017301189655111057, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.3274013177541373, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.032899230324940465, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.6376578537958237, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL126" t="inlineStr">
         <is>
-          <t>{'iterations': 397}</t>
+          <t>{'iterations': 204}</t>
         </is>
       </c>
       <c r="AM126" t="inlineStr">
@@ -19022,18 +19022,18 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>0.06466412544250488</v>
+        <v>0.06845259666442871</v>
       </c>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="n">
-        <v>0.6396567821502686</v>
+        <v>0.6778078079223633</v>
       </c>
       <c r="S127" t="n">
-        <v>0.06466412544250488</v>
+        <v>0.06845259666442871</v>
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="n">
-        <v>0.6396567821502686</v>
+        <v>0.6778078079223633</v>
       </c>
       <c r="V127" t="n">
         <v>1</v>
@@ -19168,22 +19168,22 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>0.01177668571472168</v>
+        <v>0.01046442985534668</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>0.005000114440917969</v>
       </c>
       <c r="R128" t="n">
-        <v>0.7585620880126953</v>
+        <v>0.7652401924133301</v>
       </c>
       <c r="S128" t="n">
-        <v>0.01177668571472168</v>
+        <v>0.01046442985534668</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>0.005000114440917969</v>
       </c>
       <c r="U128" t="n">
-        <v>0.7585620880126953</v>
+        <v>0.7652401924133301</v>
       </c>
       <c r="V128" t="n">
         <v>1</v>
@@ -19316,18 +19316,18 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0.01001644134521484</v>
+        <v>0.009440183639526367</v>
       </c>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="n">
-        <v>0.0356144905090332</v>
+        <v>0.04201126098632812</v>
       </c>
       <c r="S129" t="n">
-        <v>0.01001644134521484</v>
+        <v>0.009440183639526367</v>
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="n">
-        <v>0.0356144905090332</v>
+        <v>0.04201126098632812</v>
       </c>
       <c r="V129" t="n">
         <v>1</v>
@@ -19460,18 +19460,18 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>0.002251625061035156</v>
+        <v>0.01199698448181152</v>
       </c>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="n">
-        <v>0.9160223007202148</v>
+        <v>1.227974414825439</v>
       </c>
       <c r="S130" t="n">
-        <v>0.002251625061035156</v>
+        <v>0.01199698448181152</v>
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>0.9160223007202148</v>
+        <v>1.227974414825439</v>
       </c>
       <c r="V130" t="n">
         <v>1</v>
@@ -19606,22 +19606,22 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>0.002602815628051758</v>
+        <v>0.005969524383544922</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
       </c>
       <c r="R131" t="n">
-        <v>0.8863921165466309</v>
+        <v>0.9005947113037109</v>
       </c>
       <c r="S131" t="n">
-        <v>0.002602815628051758</v>
+        <v>0.005969524383544922</v>
       </c>
       <c r="T131" t="n">
         <v>0</v>
       </c>
       <c r="U131" t="n">
-        <v>0.8863921165466309</v>
+        <v>0.9005947113037109</v>
       </c>
       <c r="V131" t="n">
         <v>1</v>
@@ -19754,18 +19754,18 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>0.008352994918823242</v>
+        <v>0.01059055328369141</v>
       </c>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="n">
-        <v>0.05311870574951172</v>
+        <v>0.0594940185546875</v>
       </c>
       <c r="S132" t="n">
-        <v>0.008352994918823242</v>
+        <v>0.01059055328369141</v>
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>0.05311870574951172</v>
+        <v>0.0594940185546875</v>
       </c>
       <c r="V132" t="n">
         <v>1</v>
@@ -19900,22 +19900,22 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>0.01203179359436035</v>
+        <v>0.0140070915222168</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.005996942520141602</v>
+        <v>0.001982927322387695</v>
       </c>
       <c r="R133" t="n">
-        <v>0.5174486637115479</v>
+        <v>0.6820747852325439</v>
       </c>
       <c r="S133" t="n">
-        <v>0.01203179359436035</v>
+        <v>0.0140070915222168</v>
       </c>
       <c r="T133" t="n">
-        <v>0.005996942520141602</v>
+        <v>0.001982927322387695</v>
       </c>
       <c r="U133" t="n">
-        <v>0.5174486637115479</v>
+        <v>0.6820747852325439</v>
       </c>
       <c r="V133" t="n">
         <v>1</v>
@@ -20050,22 +20050,22 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>0.02374267578125</v>
+        <v>0.02667593955993652</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.003828525543212891</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="R134" t="n">
-        <v>0.5811786651611328</v>
+        <v>0.9199521541595459</v>
       </c>
       <c r="S134" t="n">
-        <v>0.02374267578125</v>
+        <v>0.02667593955993652</v>
       </c>
       <c r="T134" t="n">
-        <v>0.003828525543212891</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="U134" t="n">
-        <v>0.5811786651611328</v>
+        <v>0.9199521541595459</v>
       </c>
       <c r="V134" t="n">
         <v>1</v>
@@ -20200,22 +20200,22 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.002005338668823242</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.004010677337646484</v>
+        <v>0</v>
       </c>
       <c r="R135" t="n">
-        <v>0.3878324031829834</v>
+        <v>0.4128248691558838</v>
       </c>
       <c r="S135" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.002005338668823242</v>
       </c>
       <c r="T135" t="n">
-        <v>0.004010677337646484</v>
+        <v>0</v>
       </c>
       <c r="U135" t="n">
-        <v>0.3878324031829834</v>
+        <v>0.4128248691558838</v>
       </c>
       <c r="V135" t="n">
         <v>1</v>
@@ -20350,22 +20350,22 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>0.01577138900756836</v>
+        <v>0.01669049263000488</v>
       </c>
       <c r="Q136" t="n">
-        <v>0</v>
+        <v>0.01003384590148926</v>
       </c>
       <c r="R136" t="n">
-        <v>1.644825220108032</v>
+        <v>2.3009352684021</v>
       </c>
       <c r="S136" t="n">
-        <v>0.01577138900756836</v>
+        <v>0.01669049263000488</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>0.01003384590148926</v>
       </c>
       <c r="U136" t="n">
-        <v>1.644825220108032</v>
+        <v>2.3009352684021</v>
       </c>
       <c r="V136" t="n">
         <v>1</v>
@@ -20500,22 +20500,22 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>0.01195383071899414</v>
+        <v>0.01247429847717285</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>0.003633975982666016</v>
       </c>
       <c r="R137" t="n">
-        <v>0.7332239151000977</v>
+        <v>1.386717796325684</v>
       </c>
       <c r="S137" t="n">
-        <v>0.01195383071899414</v>
+        <v>0.01247429847717285</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>0.003633975982666016</v>
       </c>
       <c r="U137" t="n">
-        <v>0.7332239151000977</v>
+        <v>1.386717796325684</v>
       </c>
       <c r="V137" t="n">
         <v>1</v>
@@ -20648,18 +20648,18 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>0.06787753105163574</v>
+        <v>0.07785248756408691</v>
       </c>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="n">
-        <v>0.5079481601715088</v>
+        <v>0.5948848724365234</v>
       </c>
       <c r="S138" t="n">
-        <v>0.06787753105163574</v>
+        <v>0.07785248756408691</v>
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>0.5079481601715088</v>
+        <v>0.5948848724365234</v>
       </c>
       <c r="V138" t="n">
         <v>1</v>
@@ -20792,18 +20792,18 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>0.01245999336242676</v>
+        <v>0.01963424682617188</v>
       </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="n">
-        <v>0.06757426261901855</v>
+        <v>0.08921194076538086</v>
       </c>
       <c r="S139" t="n">
-        <v>0.01245999336242676</v>
+        <v>0.01963424682617188</v>
       </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="n">
-        <v>0.06757426261901855</v>
+        <v>0.08921194076538086</v>
       </c>
       <c r="V139" t="n">
         <v>1</v>
@@ -20938,22 +20938,22 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>0.01711273193359375</v>
+        <v>0.01739382743835449</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.008022546768188477</v>
+        <v>0.008001565933227539</v>
       </c>
       <c r="R140" t="n">
-        <v>0.2868349552154541</v>
+        <v>0.338127613067627</v>
       </c>
       <c r="S140" t="n">
-        <v>0.01711273193359375</v>
+        <v>0.01739382743835449</v>
       </c>
       <c r="T140" t="n">
-        <v>0.008022546768188477</v>
+        <v>0.008001565933227539</v>
       </c>
       <c r="U140" t="n">
-        <v>0.2868349552154541</v>
+        <v>0.338127613067627</v>
       </c>
       <c r="V140" t="n">
         <v>1</v>
@@ -21088,22 +21088,22 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>0.01202201843261719</v>
+        <v>0.01392817497253418</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.00600743293762207</v>
+        <v>0.0103614330291748</v>
       </c>
       <c r="R141" t="n">
-        <v>1.237467765808105</v>
+        <v>1.68480396270752</v>
       </c>
       <c r="S141" t="n">
-        <v>0.01202201843261719</v>
+        <v>0.01392817497253418</v>
       </c>
       <c r="T141" t="n">
-        <v>0.00600743293762207</v>
+        <v>0.0103614330291748</v>
       </c>
       <c r="U141" t="n">
-        <v>1.237467765808105</v>
+        <v>1.68480396270752</v>
       </c>
       <c r="V141" t="n">
         <v>1</v>
@@ -21236,18 +21236,18 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>0.009756326675415039</v>
+        <v>0.01003146171569824</v>
       </c>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="n">
-        <v>0.2613048553466797</v>
+        <v>0.3396754264831543</v>
       </c>
       <c r="S142" t="n">
-        <v>0.009756326675415039</v>
+        <v>0.01003146171569824</v>
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>0.2613048553466797</v>
+        <v>0.3396754264831543</v>
       </c>
       <c r="V142" t="n">
         <v>1</v>
@@ -21380,18 +21380,18 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>0.06380033493041992</v>
+        <v>0.07874894142150879</v>
       </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="n">
-        <v>1.098390340805054</v>
+        <v>0.6778006553649902</v>
       </c>
       <c r="S143" t="n">
-        <v>0.06380033493041992</v>
+        <v>0.07874894142150879</v>
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>1.098390340805054</v>
+        <v>0.6778006553649902</v>
       </c>
       <c r="V143" t="n">
         <v>1</v>
@@ -21524,18 +21524,18 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>0.01197004318237305</v>
+        <v>0.01270508766174316</v>
       </c>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="n">
-        <v>0.1433773040771484</v>
+        <v>0.2113263607025146</v>
       </c>
       <c r="S144" t="n">
-        <v>0.01197004318237305</v>
+        <v>0.01270508766174316</v>
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="n">
-        <v>0.1433773040771484</v>
+        <v>0.2113263607025146</v>
       </c>
       <c r="V144" t="n">
         <v>1</v>
@@ -21668,18 +21668,18 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.003007888793945312</v>
       </c>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="n">
-        <v>0.1491646766662598</v>
+        <v>0.1809415817260742</v>
       </c>
       <c r="S145" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.003007888793945312</v>
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>0.1491646766662598</v>
+        <v>0.1809415817260742</v>
       </c>
       <c r="V145" t="n">
         <v>1</v>
@@ -21812,18 +21812,18 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.002008438110351562</v>
       </c>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="n">
-        <v>0.1026339530944824</v>
+        <v>0.1171283721923828</v>
       </c>
       <c r="S146" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.002008438110351562</v>
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="n">
-        <v>0.1026339530944824</v>
+        <v>0.1171283721923828</v>
       </c>
       <c r="V146" t="n">
         <v>1</v>
@@ -21958,22 +21958,22 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>0.02914905548095703</v>
+        <v>0.03062748908996582</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.004682302474975586</v>
+        <v>0.005174636840820312</v>
       </c>
       <c r="R147" t="n">
-        <v>1.547738552093506</v>
+        <v>2.245666265487671</v>
       </c>
       <c r="S147" t="n">
-        <v>0.02914905548095703</v>
+        <v>0.03062748908996582</v>
       </c>
       <c r="T147" t="n">
-        <v>0.004682302474975586</v>
+        <v>0.005174636840820312</v>
       </c>
       <c r="U147" t="n">
-        <v>1.547738552093506</v>
+        <v>2.245666265487671</v>
       </c>
       <c r="V147" t="n">
         <v>1</v>
@@ -22108,22 +22108,22 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>0.01434874534606934</v>
+        <v>0.01360988616943359</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.003000259399414062</v>
+        <v>0.004019737243652344</v>
       </c>
       <c r="R148" t="n">
-        <v>0.2696220874786377</v>
+        <v>0.4348220825195312</v>
       </c>
       <c r="S148" t="n">
-        <v>0.01434874534606934</v>
+        <v>0.01360988616943359</v>
       </c>
       <c r="T148" t="n">
-        <v>0.003000259399414062</v>
+        <v>0.004019737243652344</v>
       </c>
       <c r="U148" t="n">
-        <v>0.2696220874786377</v>
+        <v>0.4348220825195312</v>
       </c>
       <c r="V148" t="n">
         <v>1</v>
@@ -22256,18 +22256,18 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>0.01203441619873047</v>
+        <v>0.01337623596191406</v>
       </c>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="n">
-        <v>0.09294891357421875</v>
+        <v>0.1334376335144043</v>
       </c>
       <c r="S149" t="n">
-        <v>0.01203441619873047</v>
+        <v>0.01337623596191406</v>
       </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="n">
-        <v>0.09294891357421875</v>
+        <v>0.1334376335144043</v>
       </c>
       <c r="V149" t="n">
         <v>1</v>
@@ -22400,18 +22400,18 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>0.008446216583251953</v>
+        <v>0.00884699821472168</v>
       </c>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="n">
-        <v>0.0742640495300293</v>
+        <v>0.0493171215057373</v>
       </c>
       <c r="S150" t="n">
-        <v>0.008446216583251953</v>
+        <v>0.00884699821472168</v>
       </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="n">
-        <v>0.0742640495300293</v>
+        <v>0.0493171215057373</v>
       </c>
       <c r="V150" t="n">
         <v>1</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>0.01152944564819336</v>
+        <v>0.01252031326293945</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.003312826156616211</v>
+        <v>0.002002716064453125</v>
       </c>
       <c r="R151" t="n">
-        <v>0.2318389415740967</v>
+        <v>0.2710175514221191</v>
       </c>
       <c r="S151" t="n">
-        <v>0.01152944564819336</v>
+        <v>0.01252031326293945</v>
       </c>
       <c r="T151" t="n">
-        <v>0.003312826156616211</v>
+        <v>0.002002716064453125</v>
       </c>
       <c r="U151" t="n">
-        <v>0.2318389415740967</v>
+        <v>0.2710175514221191</v>
       </c>
       <c r="V151" t="n">
         <v>1</v>
@@ -22694,18 +22694,18 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>0.006011486053466797</v>
+        <v>0.01100063323974609</v>
       </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="n">
-        <v>0.04341554641723633</v>
+        <v>0.05144405364990234</v>
       </c>
       <c r="S152" t="n">
-        <v>0.006011486053466797</v>
+        <v>0.01100063323974609</v>
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="n">
-        <v>0.04341554641723633</v>
+        <v>0.05144405364990234</v>
       </c>
       <c r="V152" t="n">
         <v>1</v>
@@ -22840,22 +22840,22 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>0.00776219367980957</v>
+        <v>0.008688926696777344</v>
       </c>
       <c r="Q153" t="n">
-        <v>0</v>
+        <v>0.002797126770019531</v>
       </c>
       <c r="R153" t="n">
-        <v>0.4863247871398926</v>
+        <v>1.178065299987793</v>
       </c>
       <c r="S153" t="n">
-        <v>0.00776219367980957</v>
+        <v>0.008688926696777344</v>
       </c>
       <c r="T153" t="n">
-        <v>0</v>
+        <v>0.002797126770019531</v>
       </c>
       <c r="U153" t="n">
-        <v>0.4863247871398926</v>
+        <v>1.178065299987793</v>
       </c>
       <c r="V153" t="n">
         <v>1</v>
@@ -22988,18 +22988,18 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>0.002924203872680664</v>
+        <v>0.01052284240722656</v>
       </c>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="n">
-        <v>1.811774730682373</v>
+        <v>2.323259115219116</v>
       </c>
       <c r="S154" t="n">
-        <v>0.002924203872680664</v>
+        <v>0.01052284240722656</v>
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="n">
-        <v>1.811774730682373</v>
+        <v>2.323259115219116</v>
       </c>
       <c r="V154" t="n">
         <v>1</v>
@@ -23132,18 +23132,18 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>0.01378107070922852</v>
+        <v>0.0150449275970459</v>
       </c>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="n">
-        <v>0.1131899356842041</v>
+        <v>0.1635022163391113</v>
       </c>
       <c r="S155" t="n">
-        <v>0.01378107070922852</v>
+        <v>0.0150449275970459</v>
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="n">
-        <v>0.1131899356842041</v>
+        <v>0.1635022163391113</v>
       </c>
       <c r="V155" t="n">
         <v>1</v>
@@ -23278,22 +23278,22 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>0.01465940475463867</v>
+        <v>0.01528310775756836</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.007757186889648438</v>
+        <v>0.01667499542236328</v>
       </c>
       <c r="R156" t="n">
-        <v>2.156986713409424</v>
+        <v>2.261090517044067</v>
       </c>
       <c r="S156" t="n">
-        <v>0.01465940475463867</v>
+        <v>0.01528310775756836</v>
       </c>
       <c r="T156" t="n">
-        <v>0.007757186889648438</v>
+        <v>0.01667499542236328</v>
       </c>
       <c r="U156" t="n">
-        <v>2.156986713409424</v>
+        <v>2.261090517044067</v>
       </c>
       <c r="V156" t="n">
         <v>1</v>
@@ -23428,22 +23428,22 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.004593610763549805</v>
       </c>
       <c r="Q157" t="n">
         <v>0</v>
       </c>
       <c r="R157" t="n">
-        <v>0.2393341064453125</v>
+        <v>0.2745850086212158</v>
       </c>
       <c r="S157" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.004593610763549805</v>
       </c>
       <c r="T157" t="n">
         <v>0</v>
       </c>
       <c r="U157" t="n">
-        <v>0.2393341064453125</v>
+        <v>0.2745850086212158</v>
       </c>
       <c r="V157" t="n">
         <v>1</v>
@@ -23578,22 +23578,22 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>0.009769916534423828</v>
+        <v>0.01050662994384766</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.006009340286254883</v>
+        <v>0.008025646209716797</v>
       </c>
       <c r="R158" t="n">
-        <v>0.3016300201416016</v>
+        <v>0.311382532119751</v>
       </c>
       <c r="S158" t="n">
-        <v>0.009769916534423828</v>
+        <v>0.01050662994384766</v>
       </c>
       <c r="T158" t="n">
-        <v>0.006009340286254883</v>
+        <v>0.008025646209716797</v>
       </c>
       <c r="U158" t="n">
-        <v>0.3016300201416016</v>
+        <v>0.311382532119751</v>
       </c>
       <c r="V158" t="n">
         <v>1</v>
@@ -23728,22 +23728,22 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>0.0110166072845459</v>
+        <v>0.01250004768371582</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.002062082290649414</v>
+        <v>0.002002716064453125</v>
       </c>
       <c r="R159" t="n">
-        <v>0.3586781024932861</v>
+        <v>0.360027551651001</v>
       </c>
       <c r="S159" t="n">
-        <v>0.0110166072845459</v>
+        <v>0.01250004768371582</v>
       </c>
       <c r="T159" t="n">
-        <v>0.002062082290649414</v>
+        <v>0.002002716064453125</v>
       </c>
       <c r="U159" t="n">
-        <v>0.3586781024932861</v>
+        <v>0.360027551651001</v>
       </c>
       <c r="V159" t="n">
         <v>1</v>
@@ -23876,18 +23876,18 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>0.01378488540649414</v>
+        <v>0.01543021202087402</v>
       </c>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="n">
-        <v>0.4490060806274414</v>
+        <v>0.6327714920043945</v>
       </c>
       <c r="S160" t="n">
-        <v>0.01378488540649414</v>
+        <v>0.01543021202087402</v>
       </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="n">
-        <v>0.4490060806274414</v>
+        <v>0.6327714920043945</v>
       </c>
       <c r="V160" t="n">
         <v>1</v>
@@ -24022,22 +24022,22 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>0.001771688461303711</v>
+        <v>0.002634763717651367</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.0160062313079834</v>
+        <v>0</v>
       </c>
       <c r="R161" t="n">
-        <v>0.7112188339233398</v>
+        <v>0.9338686466217041</v>
       </c>
       <c r="S161" t="n">
-        <v>0.001771688461303711</v>
+        <v>0.002634763717651367</v>
       </c>
       <c r="T161" t="n">
-        <v>0.0160062313079834</v>
+        <v>0</v>
       </c>
       <c r="U161" t="n">
-        <v>0.7112188339233398</v>
+        <v>0.9338686466217041</v>
       </c>
       <c r="V161" t="n">
         <v>1</v>
@@ -24172,22 +24172,22 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>0.007016658782958984</v>
+        <v>0.007373809814453125</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.0008442401885986328</v>
+        <v>0</v>
       </c>
       <c r="R162" t="n">
-        <v>1.627992391586304</v>
+        <v>1.752581119537354</v>
       </c>
       <c r="S162" t="n">
-        <v>0.007016658782958984</v>
+        <v>0.007373809814453125</v>
       </c>
       <c r="T162" t="n">
-        <v>0.0008442401885986328</v>
+        <v>0</v>
       </c>
       <c r="U162" t="n">
-        <v>1.627992391586304</v>
+        <v>1.752581119537354</v>
       </c>
       <c r="V162" t="n">
         <v>1</v>
@@ -24322,22 +24322,22 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>0.006012439727783203</v>
+        <v>0.004772186279296875</v>
       </c>
       <c r="Q163" t="n">
-        <v>0</v>
+        <v>0.002006292343139648</v>
       </c>
       <c r="R163" t="n">
-        <v>0.4199585914611816</v>
+        <v>0.6016697883605957</v>
       </c>
       <c r="S163" t="n">
-        <v>0.006012439727783203</v>
+        <v>0.004772186279296875</v>
       </c>
       <c r="T163" t="n">
-        <v>0</v>
+        <v>0.002006292343139648</v>
       </c>
       <c r="U163" t="n">
-        <v>0.4199585914611816</v>
+        <v>0.6016697883605957</v>
       </c>
       <c r="V163" t="n">
         <v>1</v>
@@ -24424,7 +24424,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI_r88</t>
+          <t>NeuralNetTorch_r14</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -24434,37 +24434,37 @@
         <v>0.9314285714285715</v>
       </c>
       <c r="D164" t="n">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.8371428571428572</v>
       </c>
       <c r="F164" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="G164" t="n">
-        <v>0.8171428571428572</v>
+        <v>0.8552036199095023</v>
       </c>
       <c r="H164" t="n">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="I164" t="n">
         <v>0.8285714285714285</v>
       </c>
       <c r="J164" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K164" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L164" t="n">
-        <v>-0.2797868254231177</v>
+        <v>-0.2943426137584362</v>
       </c>
       <c r="M164" t="n">
-        <v>0.4027546807341041</v>
+        <v>0.3760226766166416</v>
       </c>
       <c r="N164" t="n">
-        <v>0.6014566634632424</v>
+        <v>0.7462791904732694</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -24472,22 +24472,22 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>0.008010387420654297</v>
+        <v>0.01138973236083984</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.006037473678588867</v>
+        <v>0.004999637603759766</v>
       </c>
       <c r="R164" t="n">
-        <v>1.022855043411255</v>
+        <v>0.4235544204711914</v>
       </c>
       <c r="S164" t="n">
-        <v>0.008010387420654297</v>
+        <v>0.01138973236083984</v>
       </c>
       <c r="T164" t="n">
-        <v>0.006037473678588867</v>
+        <v>0.004999637603759766</v>
       </c>
       <c r="U164" t="n">
-        <v>1.022855043411255</v>
+        <v>0.4235544204711914</v>
       </c>
       <c r="V164" t="n">
         <v>1</v>
@@ -24496,7 +24496,7 @@
         <v>1</v>
       </c>
       <c r="X164" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="Y164" t="n">
         <v>19</v>
@@ -24508,16 +24508,16 @@
         <v>1</v>
       </c>
       <c r="AB164" t="n">
-        <v>80412</v>
+        <v>27489</v>
       </c>
       <c r="AC164" t="n">
-        <v>80412</v>
+        <v>27489</v>
       </c>
       <c r="AD164" t="n">
-        <v>80412</v>
+        <v>27489</v>
       </c>
       <c r="AE164" t="n">
-        <v>80412</v>
+        <v>27489</v>
       </c>
       <c r="AF164" t="n">
         <v>0</v>
@@ -24527,23 +24527,23 @@
       </c>
       <c r="AH164" t="inlineStr">
         <is>
-          <t>NNFastAiTabularModel</t>
+          <t>TabularNeuralNetTorchModel</t>
         </is>
       </c>
       <c r="AI164" t="inlineStr"/>
       <c r="AJ164" t="inlineStr">
         <is>
-          <t>log_loss</t>
+          <t>roc_auc</t>
         </is>
       </c>
       <c r="AK164" t="inlineStr">
         <is>
-          <t>{'layers': [400], 'emb_drop': 0.4329361816589235, 'ps': 0.2863378667611431, 'bs': 1024, 'lr': 0.09501311551121323, 'epochs': 50, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
+          <t>{'num_epochs': 1000, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.3905837860053583, 'optimizer': 'adam', 'learning_rate': 0.0018297905295930797, 'weight_decay': 9.178069874232892e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 1, 'hidden_size': 106, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto'}</t>
         </is>
       </c>
       <c r="AL164" t="inlineStr">
         <is>
-          <t>{'epochs': 50, 'best_epoch': 2}</t>
+          <t>{'batch_size': 32, 'num_epochs': 13}</t>
         </is>
       </c>
       <c r="AM164" t="inlineStr">
@@ -24574,7 +24574,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r14</t>
+          <t>NeuralNetFastAI_r88</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -24584,37 +24584,37 @@
         <v>0.9314285714285715</v>
       </c>
       <c r="D165" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="E165" t="n">
-        <v>0.8371428571428572</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="F165" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G165" t="n">
-        <v>0.8552036199095023</v>
+        <v>0.8171428571428572</v>
       </c>
       <c r="H165" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="I165" t="n">
         <v>0.8285714285714285</v>
       </c>
       <c r="J165" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K165" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L165" t="n">
-        <v>-0.2943426137584362</v>
+        <v>-0.2797868254231177</v>
       </c>
       <c r="M165" t="n">
-        <v>0.3760226766166416</v>
+        <v>0.4027546807341041</v>
       </c>
       <c r="N165" t="n">
-        <v>0.7462791904732694</v>
+        <v>0.6014566634632424</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -24622,22 +24622,22 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>0.01062846183776855</v>
+        <v>0.01177859306335449</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.01529097557067871</v>
+        <v>0.01099944114685059</v>
       </c>
       <c r="R165" t="n">
-        <v>0.4426674842834473</v>
+        <v>1.468275547027588</v>
       </c>
       <c r="S165" t="n">
-        <v>0.01062846183776855</v>
+        <v>0.01177859306335449</v>
       </c>
       <c r="T165" t="n">
-        <v>0.01529097557067871</v>
+        <v>0.01099944114685059</v>
       </c>
       <c r="U165" t="n">
-        <v>0.4426674842834473</v>
+        <v>1.468275547027588</v>
       </c>
       <c r="V165" t="n">
         <v>1</v>
@@ -24646,7 +24646,7 @@
         <v>1</v>
       </c>
       <c r="X165" t="n">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="Y165" t="n">
         <v>19</v>
@@ -24658,16 +24658,16 @@
         <v>1</v>
       </c>
       <c r="AB165" t="n">
-        <v>27489</v>
+        <v>80412</v>
       </c>
       <c r="AC165" t="n">
-        <v>27489</v>
+        <v>80412</v>
       </c>
       <c r="AD165" t="n">
-        <v>27489</v>
+        <v>80412</v>
       </c>
       <c r="AE165" t="n">
-        <v>27489</v>
+        <v>80412</v>
       </c>
       <c r="AF165" t="n">
         <v>0</v>
@@ -24677,23 +24677,23 @@
       </c>
       <c r="AH165" t="inlineStr">
         <is>
-          <t>TabularNeuralNetTorchModel</t>
+          <t>NNFastAiTabularModel</t>
         </is>
       </c>
       <c r="AI165" t="inlineStr"/>
       <c r="AJ165" t="inlineStr">
         <is>
-          <t>roc_auc</t>
+          <t>log_loss</t>
         </is>
       </c>
       <c r="AK165" t="inlineStr">
         <is>
-          <t>{'num_epochs': 1000, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.3905837860053583, 'optimizer': 'adam', 'learning_rate': 0.0018297905295930797, 'weight_decay': 9.178069874232892e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 1, 'hidden_size': 106, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto'}</t>
+          <t>{'layers': [400], 'emb_drop': 0.4329361816589235, 'ps': 0.2863378667611431, 'bs': 1024, 'lr': 0.09501311551121323, 'epochs': 50, 'early.stopping.min_delta': 0.0001, 'early.stopping.patience': 20, 'smoothing': 0.0}</t>
         </is>
       </c>
       <c r="AL165" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 13}</t>
+          <t>{'epochs': 50, 'best_epoch': 2}</t>
         </is>
       </c>
       <c r="AM165" t="inlineStr">
@@ -24772,22 +24772,22 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>0.05515408515930176</v>
+        <v>0.06769490242004395</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.03890633583068848</v>
+        <v>0.03890252113342285</v>
       </c>
       <c r="R166" t="n">
-        <v>0.5133130550384521</v>
+        <v>0.5233728885650635</v>
       </c>
       <c r="S166" t="n">
-        <v>0.05515408515930176</v>
+        <v>0.06769490242004395</v>
       </c>
       <c r="T166" t="n">
-        <v>0.03890633583068848</v>
+        <v>0.03890252113342285</v>
       </c>
       <c r="U166" t="n">
-        <v>0.5133130550384521</v>
+        <v>0.5233728885650635</v>
       </c>
       <c r="V166" t="n">
         <v>1</v>
@@ -24922,22 +24922,22 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>0.003572225570678711</v>
+        <v>0.004013299942016602</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.004176616668701172</v>
+        <v>0.004761457443237305</v>
       </c>
       <c r="R167" t="n">
-        <v>0.3655617237091064</v>
+        <v>0.6352136135101318</v>
       </c>
       <c r="S167" t="n">
-        <v>0.003572225570678711</v>
+        <v>0.004013299942016602</v>
       </c>
       <c r="T167" t="n">
-        <v>0.004176616668701172</v>
+        <v>0.004761457443237305</v>
       </c>
       <c r="U167" t="n">
-        <v>0.3655617237091064</v>
+        <v>0.6352136135101318</v>
       </c>
       <c r="V167" t="n">
         <v>1</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>0.01377081871032715</v>
+        <v>0.01362490653991699</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.007308006286621094</v>
+        <v>0.006357192993164062</v>
       </c>
       <c r="R168" t="n">
-        <v>0.7647888660430908</v>
+        <v>0.8460357189178467</v>
       </c>
       <c r="S168" t="n">
-        <v>0.01377081871032715</v>
+        <v>0.01362490653991699</v>
       </c>
       <c r="T168" t="n">
-        <v>0.007308006286621094</v>
+        <v>0.006357192993164062</v>
       </c>
       <c r="U168" t="n">
-        <v>0.7647888660430908</v>
+        <v>0.8460357189178467</v>
       </c>
       <c r="V168" t="n">
         <v>1</v>
@@ -25222,22 +25222,22 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>0.07391667366027832</v>
+        <v>0.06711554527282715</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.04167270660400391</v>
+        <v>0.04027462005615234</v>
       </c>
       <c r="R169" t="n">
-        <v>0.5475151538848877</v>
+        <v>0.6439440250396729</v>
       </c>
       <c r="S169" t="n">
-        <v>0.07391667366027832</v>
+        <v>0.06711554527282715</v>
       </c>
       <c r="T169" t="n">
-        <v>0.04167270660400391</v>
+        <v>0.04027462005615234</v>
       </c>
       <c r="U169" t="n">
-        <v>0.5475151538848877</v>
+        <v>0.6439440250396729</v>
       </c>
       <c r="V169" t="n">
         <v>1</v>
@@ -25370,18 +25370,18 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>0.01378154754638672</v>
+        <v>0.01600027084350586</v>
       </c>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="n">
-        <v>1.276460886001587</v>
+        <v>1.969674587249756</v>
       </c>
       <c r="S170" t="n">
-        <v>0.01378154754638672</v>
+        <v>0.01600027084350586</v>
       </c>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="n">
-        <v>1.276460886001587</v>
+        <v>1.969674587249756</v>
       </c>
       <c r="V170" t="n">
         <v>1</v>
@@ -25514,18 +25514,18 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>0.0497431755065918</v>
+        <v>0.0496821403503418</v>
       </c>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="n">
-        <v>0.509469747543335</v>
+        <v>0.5793466567993164</v>
       </c>
       <c r="S171" t="n">
-        <v>0.0497431755065918</v>
+        <v>0.0496821403503418</v>
       </c>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="n">
-        <v>0.509469747543335</v>
+        <v>0.5793466567993164</v>
       </c>
       <c r="V171" t="n">
         <v>1</v>
@@ -25612,7 +25612,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r87_FULL</t>
+          <t>NeuralNetTorch_r185</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -25622,54 +25622,60 @@
         <v>0.92</v>
       </c>
       <c r="D172" t="n">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="E172" t="n">
-        <v>0.88</v>
+        <v>0.7657142857142857</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G172" t="n">
-        <v>0.7818181818181817</v>
+        <v>0.7948717948717949</v>
       </c>
       <c r="H172" t="n">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="I172" t="n">
         <v>0.8155594405594406</v>
       </c>
       <c r="J172" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.8</v>
       </c>
       <c r="K172" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L172" t="n">
-        <v>-0.3506421284401302</v>
+        <v>-0.4276273470242269</v>
       </c>
       <c r="M172" t="n">
-        <v>0.2762133536936661</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>0.1485166465289596</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.8213107956857957</v>
+      </c>
       <c r="O172" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>0.01176738739013672</v>
-      </c>
-      <c r="Q172" t="inlineStr"/>
+        <v>0.01396989822387695</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0.007769346237182617</v>
+      </c>
       <c r="R172" t="n">
-        <v>0.04274845123291016</v>
+        <v>0.9248185157775879</v>
       </c>
       <c r="S172" t="n">
-        <v>0.01176738739013672</v>
-      </c>
-      <c r="T172" t="inlineStr"/>
+        <v>0.01396989822387695</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0.007769346237182617</v>
+      </c>
       <c r="U172" t="n">
-        <v>0.04274845123291016</v>
+        <v>0.9248185157775879</v>
       </c>
       <c r="V172" t="n">
         <v>1</v>
@@ -25678,7 +25684,7 @@
         <v>1</v>
       </c>
       <c r="X172" t="n">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="Y172" t="n">
         <v>19</v>
@@ -25690,16 +25696,16 @@
         <v>1</v>
       </c>
       <c r="AB172" t="n">
-        <v>109353</v>
+        <v>321672</v>
       </c>
       <c r="AC172" t="n">
-        <v>109353</v>
+        <v>321672</v>
       </c>
       <c r="AD172" t="n">
-        <v>109353</v>
+        <v>321672</v>
       </c>
       <c r="AE172" t="n">
-        <v>109353</v>
+        <v>321672</v>
       </c>
       <c r="AF172" t="n">
         <v>0</v>
@@ -25720,17 +25726,17 @@
       </c>
       <c r="AK172" t="inlineStr">
         <is>
-          <t>{'num_epochs': 1, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.36669080773207274, 'optimizer': 'adam', 'learning_rate': 0.015280159186761077, 'weight_decay': 1.3082489374636015e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 3, 'hidden_size': 95, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
+          <t>{'num_epochs': 1000, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.12166942295569863, 'optimizer': 'adam', 'learning_rate': 0.0018866871631794007, 'weight_decay': 9.190843763153802e-05, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 4, 'hidden_size': 151, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto'}</t>
         </is>
       </c>
       <c r="AL172" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 0}</t>
+          <t>{'batch_size': 32, 'num_epochs': 2}</t>
         </is>
       </c>
       <c r="AM172" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN172" t="inlineStr">
@@ -25756,7 +25762,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>NeuralNetTorch_r185</t>
+          <t>NeuralNetTorch_r87_FULL</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -25766,60 +25772,54 @@
         <v>0.92</v>
       </c>
       <c r="D173" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="E173" t="n">
-        <v>0.7657142857142857</v>
+        <v>0.88</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="G173" t="n">
-        <v>0.7948717948717949</v>
+        <v>0.7818181818181817</v>
       </c>
       <c r="H173" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="I173" t="n">
         <v>0.8155594405594406</v>
       </c>
       <c r="J173" t="n">
-        <v>0.8</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="K173" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="L173" t="n">
-        <v>-0.4276273470242269</v>
+        <v>-0.3506421284401302</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1485166465289596</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.8213107956857957</v>
-      </c>
+        <v>0.2762133536936661</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
           <t>roc_auc</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>0.01378345489501953</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>0.007750272750854492</v>
-      </c>
+        <v>0.01409769058227539</v>
+      </c>
+      <c r="Q173" t="inlineStr"/>
       <c r="R173" t="n">
-        <v>0.7167031764984131</v>
+        <v>0.06655502319335938</v>
       </c>
       <c r="S173" t="n">
-        <v>0.01378345489501953</v>
-      </c>
-      <c r="T173" t="n">
-        <v>0.007750272750854492</v>
-      </c>
+        <v>0.01409769058227539</v>
+      </c>
+      <c r="T173" t="inlineStr"/>
       <c r="U173" t="n">
-        <v>0.7167031764984131</v>
+        <v>0.06655502319335938</v>
       </c>
       <c r="V173" t="n">
         <v>1</v>
@@ -25828,7 +25828,7 @@
         <v>1</v>
       </c>
       <c r="X173" t="n">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="Y173" t="n">
         <v>19</v>
@@ -25840,16 +25840,16 @@
         <v>1</v>
       </c>
       <c r="AB173" t="n">
-        <v>321672</v>
+        <v>109353</v>
       </c>
       <c r="AC173" t="n">
-        <v>321672</v>
+        <v>109353</v>
       </c>
       <c r="AD173" t="n">
-        <v>321672</v>
+        <v>109353</v>
       </c>
       <c r="AE173" t="n">
-        <v>321672</v>
+        <v>109353</v>
       </c>
       <c r="AF173" t="n">
         <v>0</v>
@@ -25870,17 +25870,17 @@
       </c>
       <c r="AK173" t="inlineStr">
         <is>
-          <t>{'num_epochs': 1000, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.12166942295569863, 'optimizer': 'adam', 'learning_rate': 0.0018866871631794007, 'weight_decay': 9.190843763153802e-05, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 4, 'hidden_size': 151, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto'}</t>
+          <t>{'num_epochs': 1, 'epochs_wo_improve': None, 'activation': 'relu', 'embedding_size_factor': 1.0, 'embed_exponent': 0.56, 'max_embedding_dim': 100, 'y_range': None, 'y_range_extend': 0.05, 'dropout_prob': 0.36669080773207274, 'optimizer': 'adam', 'learning_rate': 0.015280159186761077, 'weight_decay': 1.3082489374636015e-08, 'proc.embed_min_categories': 4, 'proc.impute_strategy': 'median', 'proc.max_category_levels': 100, 'proc.skew_threshold': 0.99, 'use_ngram_features': False, 'num_layers': 3, 'hidden_size': 95, 'max_batch_size': 512, 'use_batchnorm': True, 'loss_function': 'auto', 'batch_size': 32}</t>
         </is>
       </c>
       <c r="AL173" t="inlineStr">
         <is>
-          <t>{'batch_size': 32, 'num_epochs': 2}</t>
+          <t>{'batch_size': 32, 'num_epochs': 0}</t>
         </is>
       </c>
       <c r="AM173" t="inlineStr">
         <is>
-          <t>{'max_memory_usage_ratio': 1.0, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
+          <t>{'max_memory_usage_ratio': 1.15, 'max_time_limit_ratio': 1.0, 'max_time_limit': None, 'min_time_limit': 0, 'valid_raw_types': ['bool', 'int', 'float', 'category'], 'valid_special_types': None, 'ignored_type_group_special': ['text_ngram', 'text_as_category'], 'ignored_type_group_raw': None, 'get_features_kwargs': None, 'get_features_kwargs_extra': None, 'predict_1_batch_size': None, 'temperature_scalar': None}</t>
         </is>
       </c>
       <c r="AN173" t="inlineStr">
@@ -25954,22 +25954,22 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>0.01564431190490723</v>
+        <v>0.008533239364624023</v>
       </c>
       <c r="Q174" t="n">
-        <v>0</v>
+        <v>0.007201433181762695</v>
       </c>
       <c r="R174" t="n">
-        <v>0.2503929138183594</v>
+        <v>0.3616139888763428</v>
       </c>
       <c r="S174" t="n">
-        <v>0.01564431190490723</v>
+        <v>0.008533239364624023</v>
       </c>
       <c r="T174" t="n">
-        <v>0</v>
+        <v>0.007201433181762695</v>
       </c>
       <c r="U174" t="n">
-        <v>0.2503929138183594</v>
+        <v>0.3616139888763428</v>
       </c>
       <c r="V174" t="n">
         <v>1</v>
@@ -26104,22 +26104,22 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>0.01177525520324707</v>
+        <v>0.0149998664855957</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.006009340286254883</v>
+        <v>0.007000207901000977</v>
       </c>
       <c r="R175" t="n">
-        <v>0.4130465984344482</v>
+        <v>0.4793782234191895</v>
       </c>
       <c r="S175" t="n">
-        <v>0.01177525520324707</v>
+        <v>0.0149998664855957</v>
       </c>
       <c r="T175" t="n">
-        <v>0.006009340286254883</v>
+        <v>0.007000207901000977</v>
       </c>
       <c r="U175" t="n">
-        <v>0.4130465984344482</v>
+        <v>0.4793782234191895</v>
       </c>
       <c r="V175" t="n">
         <v>1</v>
@@ -26254,22 +26254,22 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>0.01378417015075684</v>
+        <v>0.01593613624572754</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.004878759384155273</v>
+        <v>0.005998611450195312</v>
       </c>
       <c r="R176" t="n">
-        <v>1.149789571762085</v>
+        <v>1.185679197311401</v>
       </c>
       <c r="S176" t="n">
-        <v>0.01378417015075684</v>
+        <v>0.01593613624572754</v>
       </c>
       <c r="T176" t="n">
-        <v>0.004878759384155273</v>
+        <v>0.005998611450195312</v>
       </c>
       <c r="U176" t="n">
-        <v>1.149789571762085</v>
+        <v>1.185679197311401</v>
       </c>
       <c r="V176" t="n">
         <v>1</v>
@@ -26404,22 +26404,22 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>0.008020877838134766</v>
+        <v>0.007944345474243164</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.002705097198486328</v>
+        <v>0.003997802734375</v>
       </c>
       <c r="R177" t="n">
-        <v>0.4887869358062744</v>
+        <v>0.6962294578552246</v>
       </c>
       <c r="S177" t="n">
-        <v>0.008020877838134766</v>
+        <v>0.007944345474243164</v>
       </c>
       <c r="T177" t="n">
-        <v>0.002705097198486328</v>
+        <v>0.003997802734375</v>
       </c>
       <c r="U177" t="n">
-        <v>0.4887869358062744</v>
+        <v>0.6962294578552246</v>
       </c>
       <c r="V177" t="n">
         <v>1</v>
@@ -26554,22 +26554,22 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>0.01003026962280273</v>
+        <v>0.01044344902038574</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.01299762725830078</v>
+        <v>0.007609844207763672</v>
       </c>
       <c r="R178" t="n">
-        <v>2.184964179992676</v>
+        <v>2.208460807800293</v>
       </c>
       <c r="S178" t="n">
-        <v>0.01003026962280273</v>
+        <v>0.01044344902038574</v>
       </c>
       <c r="T178" t="n">
-        <v>0.01299762725830078</v>
+        <v>0.007609844207763672</v>
       </c>
       <c r="U178" t="n">
-        <v>2.184964179992676</v>
+        <v>2.208460807800293</v>
       </c>
       <c r="V178" t="n">
         <v>1</v>
@@ -26704,22 +26704,22 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>0.06486368179321289</v>
+        <v>0.08092093467712402</v>
       </c>
       <c r="Q179" t="n">
-        <v>0.03941631317138672</v>
+        <v>0.0381004810333252</v>
       </c>
       <c r="R179" t="n">
-        <v>0.7839453220367432</v>
+        <v>0.9626779556274414</v>
       </c>
       <c r="S179" t="n">
-        <v>0.06486368179321289</v>
+        <v>0.08092093467712402</v>
       </c>
       <c r="T179" t="n">
-        <v>0.03941631317138672</v>
+        <v>0.0381004810333252</v>
       </c>
       <c r="U179" t="n">
-        <v>0.7839453220367432</v>
+        <v>0.9626779556274414</v>
       </c>
       <c r="V179" t="n">
         <v>1</v>
@@ -26854,22 +26854,22 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>0.01122641563415527</v>
+        <v>0.01100420951843262</v>
       </c>
       <c r="Q180" t="n">
-        <v>0.01572751998901367</v>
+        <v>0.008562326431274414</v>
       </c>
       <c r="R180" t="n">
-        <v>0.8484411239624023</v>
+        <v>1.143409967422485</v>
       </c>
       <c r="S180" t="n">
-        <v>0.01122641563415527</v>
+        <v>0.01100420951843262</v>
       </c>
       <c r="T180" t="n">
-        <v>0.01572751998901367</v>
+        <v>0.008562326431274414</v>
       </c>
       <c r="U180" t="n">
-        <v>0.8484411239624023</v>
+        <v>1.143409967422485</v>
       </c>
       <c r="V180" t="n">
         <v>1</v>
@@ -27004,22 +27004,22 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>0.009246587753295898</v>
+        <v>0.01173710823059082</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.009253025054931641</v>
+        <v>0.01105761528015137</v>
       </c>
       <c r="R181" t="n">
-        <v>1.785707712173462</v>
+        <v>2.31707239151001</v>
       </c>
       <c r="S181" t="n">
-        <v>0.009246587753295898</v>
+        <v>0.01173710823059082</v>
       </c>
       <c r="T181" t="n">
-        <v>0.009253025054931641</v>
+        <v>0.01105761528015137</v>
       </c>
       <c r="U181" t="n">
-        <v>1.785707712173462</v>
+        <v>2.31707239151001</v>
       </c>
       <c r="V181" t="n">
         <v>1</v>
@@ -27152,18 +27152,18 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>0.01202011108398438</v>
+        <v>0.01400423049926758</v>
       </c>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="n">
-        <v>0.05320930480957031</v>
+        <v>0.0945289134979248</v>
       </c>
       <c r="S182" t="n">
-        <v>0.01202011108398438</v>
+        <v>0.01400423049926758</v>
       </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>0.05320930480957031</v>
+        <v>0.0945289134979248</v>
       </c>
       <c r="V182" t="n">
         <v>1</v>
@@ -27296,18 +27296,18 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>0.01176309585571289</v>
+        <v>0.01316070556640625</v>
       </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
-        <v>0.09763383865356445</v>
+        <v>0.1120173931121826</v>
       </c>
       <c r="S183" t="n">
-        <v>0.01176309585571289</v>
+        <v>0.01316070556640625</v>
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>0.09763383865356445</v>
+        <v>0.1120173931121826</v>
       </c>
       <c r="V183" t="n">
         <v>1</v>
@@ -27440,18 +27440,18 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>0.05304813385009766</v>
+        <v>0.06689143180847168</v>
       </c>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="n">
-        <v>0.6262814998626709</v>
+        <v>0.7399587631225586</v>
       </c>
       <c r="S184" t="n">
-        <v>0.05304813385009766</v>
+        <v>0.06689143180847168</v>
       </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
-        <v>0.6262814998626709</v>
+        <v>0.7399587631225586</v>
       </c>
       <c r="V184" t="n">
         <v>1</v>
@@ -27584,18 +27584,18 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>0.05234646797180176</v>
+        <v>0.05984210968017578</v>
       </c>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="n">
-        <v>0.5824060440063477</v>
+        <v>0.6407465934753418</v>
       </c>
       <c r="S185" t="n">
-        <v>0.05234646797180176</v>
+        <v>0.05984210968017578</v>
       </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
-        <v>0.5824060440063477</v>
+        <v>0.6407465934753418</v>
       </c>
       <c r="V185" t="n">
         <v>1</v>
@@ -27728,18 +27728,18 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>0.06636309623718262</v>
+        <v>0.07579588890075684</v>
       </c>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
-        <v>1.187869787216187</v>
+        <v>0.7294554710388184</v>
       </c>
       <c r="S186" t="n">
-        <v>0.06636309623718262</v>
+        <v>0.07579588890075684</v>
       </c>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="n">
-        <v>1.187869787216187</v>
+        <v>0.7294554710388184</v>
       </c>
       <c r="V186" t="n">
         <v>1</v>
@@ -27874,22 +27874,22 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>0.008012771606445312</v>
+        <v>0.01301383972167969</v>
       </c>
       <c r="Q187" t="n">
-        <v>0.007487297058105469</v>
+        <v>0.01178932189941406</v>
       </c>
       <c r="R187" t="n">
-        <v>4.85646653175354</v>
+        <v>6.471946001052856</v>
       </c>
       <c r="S187" t="n">
-        <v>0.008012771606445312</v>
+        <v>0.01301383972167969</v>
       </c>
       <c r="T187" t="n">
-        <v>0.007487297058105469</v>
+        <v>0.01178932189941406</v>
       </c>
       <c r="U187" t="n">
-        <v>4.85646653175354</v>
+        <v>6.471946001052856</v>
       </c>
       <c r="V187" t="n">
         <v>1</v>
@@ -27976,7 +27976,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RandomForest_r166</t>
+          <t>RandomForestGini</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -28024,22 +28024,22 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>0.0489647388458252</v>
+        <v>0.06603312492370605</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.03734350204467773</v>
+        <v>0.04259610176086426</v>
       </c>
       <c r="R188" t="n">
-        <v>0.7829747200012207</v>
+        <v>0.6362864971160889</v>
       </c>
       <c r="S188" t="n">
-        <v>0.0489647388458252</v>
+        <v>0.06603312492370605</v>
       </c>
       <c r="T188" t="n">
-        <v>0.03734350204467773</v>
+        <v>0.04259610176086426</v>
       </c>
       <c r="U188" t="n">
-        <v>0.7829747200012207</v>
+        <v>0.6362864971160889</v>
       </c>
       <c r="V188" t="n">
         <v>1</v>
@@ -28048,7 +28048,7 @@
         <v>1</v>
       </c>
       <c r="X188" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="Y188" t="n">
         <v>19</v>
@@ -28060,22 +28060,22 @@
         <v>1</v>
       </c>
       <c r="AB188" t="n">
-        <v>1232705</v>
+        <v>1232684</v>
       </c>
       <c r="AC188" t="n">
-        <v>1232705</v>
+        <v>1232684</v>
       </c>
       <c r="AD188" t="n">
-        <v>1232705</v>
+        <v>1232684</v>
       </c>
       <c r="AE188" t="n">
-        <v>1232705</v>
+        <v>1232684</v>
       </c>
       <c r="AF188" t="n">
         <v>0</v>
       </c>
       <c r="AG188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH188" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
       </c>
       <c r="AK188" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 42644, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 'log2', 'min_samples_leaf': 1}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 15000, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'criterion': 'gini'}</t>
         </is>
       </c>
       <c r="AL188" t="inlineStr">
@@ -28119,14 +28119,14 @@
       </c>
       <c r="AT188" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['WeightedEnsemble_L2']</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RandomForestGini</t>
+          <t>RandomForest_r166</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -28174,22 +28174,22 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>0.06433820724487305</v>
+        <v>0.06694197654724121</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.03995752334594727</v>
+        <v>0.03956007957458496</v>
       </c>
       <c r="R189" t="n">
-        <v>0.5697708129882812</v>
+        <v>0.8794820308685303</v>
       </c>
       <c r="S189" t="n">
-        <v>0.06433820724487305</v>
+        <v>0.06694197654724121</v>
       </c>
       <c r="T189" t="n">
-        <v>0.03995752334594727</v>
+        <v>0.03956007957458496</v>
       </c>
       <c r="U189" t="n">
-        <v>0.5697708129882812</v>
+        <v>0.8794820308685303</v>
       </c>
       <c r="V189" t="n">
         <v>1</v>
@@ -28198,7 +28198,7 @@
         <v>1</v>
       </c>
       <c r="X189" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="Y189" t="n">
         <v>19</v>
@@ -28210,22 +28210,22 @@
         <v>1</v>
       </c>
       <c r="AB189" t="n">
-        <v>1232684</v>
+        <v>1232705</v>
       </c>
       <c r="AC189" t="n">
-        <v>1232684</v>
+        <v>1232705</v>
       </c>
       <c r="AD189" t="n">
-        <v>1232684</v>
+        <v>1232705</v>
       </c>
       <c r="AE189" t="n">
-        <v>1232684</v>
+        <v>1232705</v>
       </c>
       <c r="AF189" t="n">
         <v>0</v>
       </c>
       <c r="AG189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH189" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
       </c>
       <c r="AK189" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 15000, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'criterion': 'gini'}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 42644, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 'log2', 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="AL189" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="AT189" t="inlineStr">
         <is>
-          <t>['WeightedEnsemble_L2']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -28324,22 +28324,22 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>0.06438112258911133</v>
+        <v>0.06909465789794922</v>
       </c>
       <c r="Q190" t="n">
-        <v>0.08468532562255859</v>
+        <v>0.04023885726928711</v>
       </c>
       <c r="R190" t="n">
-        <v>0.6872143745422363</v>
+        <v>0.7605254650115967</v>
       </c>
       <c r="S190" t="n">
-        <v>0.06438112258911133</v>
+        <v>0.06909465789794922</v>
       </c>
       <c r="T190" t="n">
-        <v>0.08468532562255859</v>
+        <v>0.04023885726928711</v>
       </c>
       <c r="U190" t="n">
-        <v>0.6872143745422363</v>
+        <v>0.7605254650115967</v>
       </c>
       <c r="V190" t="n">
         <v>1</v>
@@ -28472,18 +28472,18 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>0.01353240013122559</v>
+        <v>0.01308512687683105</v>
       </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
-        <v>0.3361742496490479</v>
+        <v>0.4574885368347168</v>
       </c>
       <c r="S191" t="n">
-        <v>0.01353240013122559</v>
+        <v>0.01308512687683105</v>
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>0.3361742496490479</v>
+        <v>0.4574885368347168</v>
       </c>
       <c r="V191" t="n">
         <v>1</v>
@@ -28618,22 +28618,22 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>0.0504763126373291</v>
+        <v>0.05130219459533691</v>
       </c>
       <c r="Q192" t="n">
-        <v>0.04004025459289551</v>
+        <v>0.04111099243164062</v>
       </c>
       <c r="R192" t="n">
-        <v>0.6818997859954834</v>
+        <v>0.5233352184295654</v>
       </c>
       <c r="S192" t="n">
-        <v>0.0504763126373291</v>
+        <v>0.05130219459533691</v>
       </c>
       <c r="T192" t="n">
-        <v>0.04004025459289551</v>
+        <v>0.04111099243164062</v>
       </c>
       <c r="U192" t="n">
-        <v>0.6818997859954834</v>
+        <v>0.5233352184295654</v>
       </c>
       <c r="V192" t="n">
         <v>1</v>
@@ -28768,22 +28768,22 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>0.06643033027648926</v>
+        <v>0.07268691062927246</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.03884077072143555</v>
+        <v>0.04011988639831543</v>
       </c>
       <c r="R193" t="n">
-        <v>0.6247391700744629</v>
+        <v>0.7483298778533936</v>
       </c>
       <c r="S193" t="n">
-        <v>0.06643033027648926</v>
+        <v>0.07268691062927246</v>
       </c>
       <c r="T193" t="n">
-        <v>0.03884077072143555</v>
+        <v>0.04011988639831543</v>
       </c>
       <c r="U193" t="n">
-        <v>0.6247391700744629</v>
+        <v>0.7483298778533936</v>
       </c>
       <c r="V193" t="n">
         <v>1</v>
@@ -28918,22 +28918,22 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>0.06602692604064941</v>
+        <v>0.0689389705657959</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.04219412803649902</v>
+        <v>0.03923296928405762</v>
       </c>
       <c r="R194" t="n">
-        <v>0.5364682674407959</v>
+        <v>0.5047931671142578</v>
       </c>
       <c r="S194" t="n">
-        <v>0.06602692604064941</v>
+        <v>0.0689389705657959</v>
       </c>
       <c r="T194" t="n">
-        <v>0.04219412803649902</v>
+        <v>0.03923296928405762</v>
       </c>
       <c r="U194" t="n">
-        <v>0.5364682674407959</v>
+        <v>0.5047931671142578</v>
       </c>
       <c r="V194" t="n">
         <v>1</v>
@@ -29068,22 +29068,22 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>0.01273798942565918</v>
+        <v>0.01610374450683594</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.008946895599365234</v>
+        <v>0.01225733757019043</v>
       </c>
       <c r="R195" t="n">
-        <v>1.157698392868042</v>
+        <v>1.602724552154541</v>
       </c>
       <c r="S195" t="n">
-        <v>0.01273798942565918</v>
+        <v>0.01610374450683594</v>
       </c>
       <c r="T195" t="n">
-        <v>0.008946895599365234</v>
+        <v>0.01225733757019043</v>
       </c>
       <c r="U195" t="n">
-        <v>1.157698392868042</v>
+        <v>1.602724552154541</v>
       </c>
       <c r="V195" t="n">
         <v>1</v>
@@ -29218,22 +29218,22 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>0.06325626373291016</v>
+        <v>0.0704643726348877</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.03934645652770996</v>
+        <v>0.05077767372131348</v>
       </c>
       <c r="R196" t="n">
-        <v>0.5714764595031738</v>
+        <v>0.6659326553344727</v>
       </c>
       <c r="S196" t="n">
-        <v>0.06325626373291016</v>
+        <v>0.0704643726348877</v>
       </c>
       <c r="T196" t="n">
-        <v>0.03934645652770996</v>
+        <v>0.05077767372131348</v>
       </c>
       <c r="U196" t="n">
-        <v>0.5714764595031738</v>
+        <v>0.6659326553344727</v>
       </c>
       <c r="V196" t="n">
         <v>1</v>
@@ -29368,22 +29368,22 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>0.01354098320007324</v>
+        <v>0.01266765594482422</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.0003917217254638672</v>
+        <v>0.007000923156738281</v>
       </c>
       <c r="R197" t="n">
-        <v>1.433066129684448</v>
+        <v>1.52256178855896</v>
       </c>
       <c r="S197" t="n">
-        <v>0.01354098320007324</v>
+        <v>0.01266765594482422</v>
       </c>
       <c r="T197" t="n">
-        <v>0.0003917217254638672</v>
+        <v>0.007000923156738281</v>
       </c>
       <c r="U197" t="n">
-        <v>1.433066129684448</v>
+        <v>1.52256178855896</v>
       </c>
       <c r="V197" t="n">
         <v>1</v>
@@ -29518,22 +29518,22 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>0.01292681694030762</v>
+        <v>0.01337409019470215</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.005996227264404297</v>
+        <v>0.002416849136352539</v>
       </c>
       <c r="R198" t="n">
-        <v>0.5052151679992676</v>
+        <v>0.6273696422576904</v>
       </c>
       <c r="S198" t="n">
-        <v>0.01292681694030762</v>
+        <v>0.01337409019470215</v>
       </c>
       <c r="T198" t="n">
-        <v>0.005996227264404297</v>
+        <v>0.002416849136352539</v>
       </c>
       <c r="U198" t="n">
-        <v>0.5052151679992676</v>
+        <v>0.6273696422576904</v>
       </c>
       <c r="V198" t="n">
         <v>1</v>
@@ -29668,22 +29668,22 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>0.0120232105255127</v>
+        <v>0.01536822319030762</v>
       </c>
       <c r="Q199" t="n">
-        <v>0.003745317459106445</v>
+        <v>0.01060080528259277</v>
       </c>
       <c r="R199" t="n">
-        <v>0.350330114364624</v>
+        <v>0.4806711673736572</v>
       </c>
       <c r="S199" t="n">
-        <v>0.0120232105255127</v>
+        <v>0.01536822319030762</v>
       </c>
       <c r="T199" t="n">
-        <v>0.003745317459106445</v>
+        <v>0.01060080528259277</v>
       </c>
       <c r="U199" t="n">
-        <v>0.350330114364624</v>
+        <v>0.4806711673736572</v>
       </c>
       <c r="V199" t="n">
         <v>1</v>
@@ -29818,22 +29818,22 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>0.006571769714355469</v>
+        <v>0.01199102401733398</v>
       </c>
       <c r="Q200" t="n">
-        <v>0</v>
+        <v>0.0110619068145752</v>
       </c>
       <c r="R200" t="n">
-        <v>1.219994306564331</v>
+        <v>1.78406810760498</v>
       </c>
       <c r="S200" t="n">
-        <v>0.006571769714355469</v>
+        <v>0.01199102401733398</v>
       </c>
       <c r="T200" t="n">
-        <v>0</v>
+        <v>0.0110619068145752</v>
       </c>
       <c r="U200" t="n">
-        <v>1.219994306564331</v>
+        <v>1.78406810760498</v>
       </c>
       <c r="V200" t="n">
         <v>1</v>
@@ -29968,22 +29968,22 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>0.05398774147033691</v>
+        <v>0.0513617992401123</v>
       </c>
       <c r="Q201" t="n">
-        <v>0.04193758964538574</v>
+        <v>0.03945493698120117</v>
       </c>
       <c r="R201" t="n">
-        <v>0.5139610767364502</v>
+        <v>0.4996016025543213</v>
       </c>
       <c r="S201" t="n">
-        <v>0.05398774147033691</v>
+        <v>0.0513617992401123</v>
       </c>
       <c r="T201" t="n">
-        <v>0.04193758964538574</v>
+        <v>0.03945493698120117</v>
       </c>
       <c r="U201" t="n">
-        <v>0.5139610767364502</v>
+        <v>0.4996016025543213</v>
       </c>
       <c r="V201" t="n">
         <v>1</v>
@@ -30116,18 +30116,18 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>0.06258416175842285</v>
+        <v>0.06887960433959961</v>
       </c>
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="n">
-        <v>0.5476415157318115</v>
+        <v>0.645042896270752</v>
       </c>
       <c r="S202" t="n">
-        <v>0.06258416175842285</v>
+        <v>0.06887960433959961</v>
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="n">
-        <v>0.5476415157318115</v>
+        <v>0.645042896270752</v>
       </c>
       <c r="V202" t="n">
         <v>1</v>
@@ -30262,22 +30262,22 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.009327888488769531</v>
       </c>
       <c r="Q203" t="n">
-        <v>0</v>
+        <v>0.0084075927734375</v>
       </c>
       <c r="R203" t="n">
-        <v>0.2586519718170166</v>
+        <v>0.3113596439361572</v>
       </c>
       <c r="S203" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.009327888488769531</v>
       </c>
       <c r="T203" t="n">
-        <v>0</v>
+        <v>0.0084075927734375</v>
       </c>
       <c r="U203" t="n">
-        <v>0.2586519718170166</v>
+        <v>0.3113596439361572</v>
       </c>
       <c r="V203" t="n">
         <v>1</v>
@@ -30412,22 +30412,22 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>0.01001524925231934</v>
+        <v>0.01120591163635254</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.007152795791625977</v>
+        <v>0.002493619918823242</v>
       </c>
       <c r="R204" t="n">
-        <v>0.4606716632843018</v>
+        <v>0.517894983291626</v>
       </c>
       <c r="S204" t="n">
-        <v>0.01001524925231934</v>
+        <v>0.01120591163635254</v>
       </c>
       <c r="T204" t="n">
-        <v>0.007152795791625977</v>
+        <v>0.002493619918823242</v>
       </c>
       <c r="U204" t="n">
-        <v>0.4606716632843018</v>
+        <v>0.517894983291626</v>
       </c>
       <c r="V204" t="n">
         <v>1</v>
@@ -30562,22 +30562,22 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>0.01094150543212891</v>
+        <v>0.01346826553344727</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.0181121826171875</v>
+        <v>0.009758234024047852</v>
       </c>
       <c r="R205" t="n">
-        <v>0.6120564937591553</v>
+        <v>0.822310209274292</v>
       </c>
       <c r="S205" t="n">
-        <v>0.01094150543212891</v>
+        <v>0.01346826553344727</v>
       </c>
       <c r="T205" t="n">
-        <v>0.0181121826171875</v>
+        <v>0.009758234024047852</v>
       </c>
       <c r="U205" t="n">
-        <v>0.6120564937591553</v>
+        <v>0.822310209274292</v>
       </c>
       <c r="V205" t="n">
         <v>1</v>
@@ -30712,22 +30712,22 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>0.01377367973327637</v>
+        <v>0.0155484676361084</v>
       </c>
       <c r="Q206" t="n">
-        <v>0</v>
+        <v>0.001401662826538086</v>
       </c>
       <c r="R206" t="n">
-        <v>1.649924039840698</v>
+        <v>1.939804553985596</v>
       </c>
       <c r="S206" t="n">
-        <v>0.01377367973327637</v>
+        <v>0.0155484676361084</v>
       </c>
       <c r="T206" t="n">
-        <v>0</v>
+        <v>0.001401662826538086</v>
       </c>
       <c r="U206" t="n">
-        <v>1.649924039840698</v>
+        <v>1.939804553985596</v>
       </c>
       <c r="V206" t="n">
         <v>1</v>
@@ -30862,22 +30862,22 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>0.009771347045898438</v>
+        <v>0.008492946624755859</v>
       </c>
       <c r="Q207" t="n">
-        <v>0.01355528831481934</v>
+        <v>0.007605075836181641</v>
       </c>
       <c r="R207" t="n">
-        <v>0.2826261520385742</v>
+        <v>0.3537755012512207</v>
       </c>
       <c r="S207" t="n">
-        <v>0.009771347045898438</v>
+        <v>0.008492946624755859</v>
       </c>
       <c r="T207" t="n">
-        <v>0.01355528831481934</v>
+        <v>0.007605075836181641</v>
       </c>
       <c r="U207" t="n">
-        <v>0.2826261520385742</v>
+        <v>0.3537755012512207</v>
       </c>
       <c r="V207" t="n">
         <v>1</v>
@@ -31010,18 +31010,18 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>0.01544070243835449</v>
+        <v>0.01508378982543945</v>
       </c>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="n">
-        <v>0.6877334117889404</v>
+        <v>0.8375692367553711</v>
       </c>
       <c r="S208" t="n">
-        <v>0.01544070243835449</v>
+        <v>0.01508378982543945</v>
       </c>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="n">
-        <v>0.6877334117889404</v>
+        <v>0.8375692367553711</v>
       </c>
       <c r="V208" t="n">
         <v>1</v>
@@ -31154,18 +31154,18 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>0.01176095008850098</v>
+        <v>0.01800394058227539</v>
       </c>
       <c r="Q209" t="inlineStr"/>
       <c r="R209" t="n">
-        <v>0.6129333972930908</v>
+        <v>0.9243066310882568</v>
       </c>
       <c r="S209" t="n">
-        <v>0.01176095008850098</v>
+        <v>0.01800394058227539</v>
       </c>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="n">
-        <v>0.6129333972930908</v>
+        <v>0.9243066310882568</v>
       </c>
       <c r="V209" t="n">
         <v>1</v>
@@ -31300,22 +31300,22 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>0.01378321647644043</v>
+        <v>0.01350069046020508</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.01064896583557129</v>
+        <v>0.007005929946899414</v>
       </c>
       <c r="R210" t="n">
-        <v>0.5079774856567383</v>
+        <v>0.6221599578857422</v>
       </c>
       <c r="S210" t="n">
-        <v>0.01378321647644043</v>
+        <v>0.01350069046020508</v>
       </c>
       <c r="T210" t="n">
-        <v>0.01064896583557129</v>
+        <v>0.007005929946899414</v>
       </c>
       <c r="U210" t="n">
-        <v>0.5079774856567383</v>
+        <v>0.6221599578857422</v>
       </c>
       <c r="V210" t="n">
         <v>1</v>
@@ -31450,22 +31450,22 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>0.06168103218078613</v>
+        <v>0.07061505317687988</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.0400080680847168</v>
+        <v>0.05488944053649902</v>
       </c>
       <c r="R211" t="n">
-        <v>0.5257821083068848</v>
+        <v>0.6960971355438232</v>
       </c>
       <c r="S211" t="n">
-        <v>0.06168103218078613</v>
+        <v>0.07061505317687988</v>
       </c>
       <c r="T211" t="n">
-        <v>0.0400080680847168</v>
+        <v>0.05488944053649902</v>
       </c>
       <c r="U211" t="n">
-        <v>0.5257821083068848</v>
+        <v>0.6960971355438232</v>
       </c>
       <c r="V211" t="n">
         <v>1</v>
@@ -31600,22 +31600,22 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>0.01238417625427246</v>
+        <v>0.01460170745849609</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.006541013717651367</v>
+        <v>0.005002737045288086</v>
       </c>
       <c r="R212" t="n">
-        <v>0.3773086071014404</v>
+        <v>0.3454215526580811</v>
       </c>
       <c r="S212" t="n">
-        <v>0.01238417625427246</v>
+        <v>0.01460170745849609</v>
       </c>
       <c r="T212" t="n">
-        <v>0.006541013717651367</v>
+        <v>0.005002737045288086</v>
       </c>
       <c r="U212" t="n">
-        <v>0.3773086071014404</v>
+        <v>0.3454215526580811</v>
       </c>
       <c r="V212" t="n">
         <v>1</v>
@@ -31750,22 +31750,22 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>0.05178356170654297</v>
+        <v>0.07238054275512695</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.03836226463317871</v>
+        <v>0.03876018524169922</v>
       </c>
       <c r="R213" t="n">
-        <v>0.6986978054046631</v>
+        <v>0.7236835956573486</v>
       </c>
       <c r="S213" t="n">
-        <v>0.05178356170654297</v>
+        <v>0.07238054275512695</v>
       </c>
       <c r="T213" t="n">
-        <v>0.03836226463317871</v>
+        <v>0.03876018524169922</v>
       </c>
       <c r="U213" t="n">
-        <v>0.6986978054046631</v>
+        <v>0.7236835956573486</v>
       </c>
       <c r="V213" t="n">
         <v>1</v>
@@ -31898,18 +31898,18 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>0.05234265327453613</v>
+        <v>0.07064032554626465</v>
       </c>
       <c r="Q214" t="inlineStr"/>
       <c r="R214" t="n">
-        <v>0.5417158603668213</v>
+        <v>0.6407179832458496</v>
       </c>
       <c r="S214" t="n">
-        <v>0.05234265327453613</v>
+        <v>0.07064032554626465</v>
       </c>
       <c r="T214" t="inlineStr"/>
       <c r="U214" t="n">
-        <v>0.5417158603668213</v>
+        <v>0.6407179832458496</v>
       </c>
       <c r="V214" t="n">
         <v>1</v>
@@ -32044,22 +32044,22 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>0.01521873474121094</v>
+        <v>0.0167388916015625</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.01119112968444824</v>
+        <v>0.009897232055664062</v>
       </c>
       <c r="R215" t="n">
-        <v>2.085767030715942</v>
+        <v>2.491409778594971</v>
       </c>
       <c r="S215" t="n">
-        <v>0.01521873474121094</v>
+        <v>0.0167388916015625</v>
       </c>
       <c r="T215" t="n">
-        <v>0.01119112968444824</v>
+        <v>0.009897232055664062</v>
       </c>
       <c r="U215" t="n">
-        <v>2.085767030715942</v>
+        <v>2.491409778594971</v>
       </c>
       <c r="V215" t="n">
         <v>1</v>
@@ -32194,22 +32194,22 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>0.0117793083190918</v>
+        <v>0.01103496551513672</v>
       </c>
       <c r="Q216" t="n">
-        <v>0</v>
+        <v>0.008004665374755859</v>
       </c>
       <c r="R216" t="n">
-        <v>0.7546088695526123</v>
+        <v>0.7711317539215088</v>
       </c>
       <c r="S216" t="n">
-        <v>0.0117793083190918</v>
+        <v>0.01103496551513672</v>
       </c>
       <c r="T216" t="n">
-        <v>0</v>
+        <v>0.008004665374755859</v>
       </c>
       <c r="U216" t="n">
-        <v>0.7546088695526123</v>
+        <v>0.7711317539215088</v>
       </c>
       <c r="V216" t="n">
         <v>1</v>
@@ -32344,22 +32344,22 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>0.0040130615234375</v>
+        <v>0.003001213073730469</v>
       </c>
       <c r="Q217" t="n">
-        <v>0</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="R217" t="n">
-        <v>0.2482514381408691</v>
+        <v>0.4576091766357422</v>
       </c>
       <c r="S217" t="n">
-        <v>0.0040130615234375</v>
+        <v>0.003001213073730469</v>
       </c>
       <c r="T217" t="n">
-        <v>0</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="U217" t="n">
-        <v>0.2482514381408691</v>
+        <v>0.4576091766357422</v>
       </c>
       <c r="V217" t="n">
         <v>1</v>
@@ -32494,22 +32494,22 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>0.002005338668823242</v>
+        <v>0.001999616622924805</v>
       </c>
       <c r="Q218" t="n">
-        <v>0</v>
+        <v>0.002999067306518555</v>
       </c>
       <c r="R218" t="n">
-        <v>0.2523078918457031</v>
+        <v>0.3704710006713867</v>
       </c>
       <c r="S218" t="n">
-        <v>0.002005338668823242</v>
+        <v>0.001999616622924805</v>
       </c>
       <c r="T218" t="n">
-        <v>0</v>
+        <v>0.002999067306518555</v>
       </c>
       <c r="U218" t="n">
-        <v>0.2523078918457031</v>
+        <v>0.3704710006713867</v>
       </c>
       <c r="V218" t="n">
         <v>1</v>
@@ -32644,22 +32644,22 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>0.01201796531677246</v>
+        <v>0.01447272300720215</v>
       </c>
       <c r="Q219" t="n">
-        <v>0</v>
+        <v>0.007758140563964844</v>
       </c>
       <c r="R219" t="n">
-        <v>1.633854627609253</v>
+        <v>2.261879444122314</v>
       </c>
       <c r="S219" t="n">
-        <v>0.01201796531677246</v>
+        <v>0.01447272300720215</v>
       </c>
       <c r="T219" t="n">
-        <v>0</v>
+        <v>0.007758140563964844</v>
       </c>
       <c r="U219" t="n">
-        <v>1.633854627609253</v>
+        <v>2.261879444122314</v>
       </c>
       <c r="V219" t="n">
         <v>1</v>
